--- a/graphs/benchmark_locking 2x i5 M540 @ 2.53Ghz Win10 4.125Gb bandwidth.xlsx
+++ b/graphs/benchmark_locking 2x i5 M540 @ 2.53Ghz Win10 4.125Gb bandwidth.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="32">
   <si>
     <t>lock_files</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>FAT32</t>
+  </si>
+  <si>
+    <t>exFAT</t>
   </si>
 </sst>
 </file>
@@ -5256,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH113" workbookViewId="0">
-      <selection activeCell="BA149" sqref="BA149"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AI60" sqref="AI60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5324,6 +5327,17 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" t="s">
@@ -11278,13 +11292,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="K4:S4"/>
     <mergeCell ref="U4:AC4"/>
+    <mergeCell ref="AE4:AM4"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:I25">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -11292,6 +11307,138 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:I36">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I14">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I36">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:I69">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:I47">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:I58">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:I69">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:S14">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:S25">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11303,15 +11450,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:I36">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="L29:S36">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11323,59 +11462,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I14">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I36">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:I69">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:I47">
+  <conditionalFormatting sqref="L40:S47">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11387,7 +11474,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:I58">
+  <conditionalFormatting sqref="L51:S58">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11399,7 +11486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:I69">
+  <conditionalFormatting sqref="L62:S69">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11411,7 +11498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:S14">
+  <conditionalFormatting sqref="V62:AC69">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11423,7 +11510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:S25">
+  <conditionalFormatting sqref="V51:AC58">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11435,7 +11522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:S36">
+  <conditionalFormatting sqref="V40:AC47">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11447,7 +11534,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:S47">
+  <conditionalFormatting sqref="V29:AC36">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11459,7 +11546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51:S58">
+  <conditionalFormatting sqref="V18:AC25">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11471,7 +11558,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L62:S69">
+  <conditionalFormatting sqref="V7:AC14">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11483,7 +11570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V62:AC69">
+  <conditionalFormatting sqref="AF7:AM14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11495,7 +11582,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V51:AC58">
+  <conditionalFormatting sqref="AF18:AM25">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11507,7 +11594,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V40:AC47">
+  <conditionalFormatting sqref="AF29:AM36">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11519,7 +11606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29:AC36">
+  <conditionalFormatting sqref="AF40:AM47">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11531,7 +11618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:AC25">
+  <conditionalFormatting sqref="AF51:AM58">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11543,7 +11630,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7:AC14">
+  <conditionalFormatting sqref="AF62:AM69">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11556,7 +11643,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/graphs/benchmark_locking 2x i5 M540 @ 2.53Ghz Win10 4.125Gb bandwidth.xlsx
+++ b/graphs/benchmark_locking 2x i5 M540 @ 2.53Ghz Win10 4.125Gb bandwidth.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="34">
   <si>
     <t>lock_files</t>
   </si>
@@ -112,6 +112,12 @@
   <si>
     <t>exFAT</t>
   </si>
+  <si>
+    <t>memory_map</t>
+  </si>
+  <si>
+    <t>!memory_map</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +182,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -211,7 +217,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$43:$I$43</c:f>
+              <c:f>Sheet2!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -254,7 +260,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$43:$S$43</c:f>
+              <c:f>Sheet2!$L$54:$S$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -297,7 +303,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$V$43:$AC$43</c:f>
+              <c:f>Sheet2!$V$54:$AC$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -340,7 +346,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AF$43:$AM$43</c:f>
+              <c:f>Sheet2!$AF$54:$AM$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -373,11 +379,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180569600"/>
-        <c:axId val="180596736"/>
+        <c:axId val="48079616"/>
+        <c:axId val="48081920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180569600"/>
+        <c:axId val="48079616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,14 +407,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180596736"/>
+        <c:crossAx val="48081920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180596736"/>
+        <c:axId val="48081920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +440,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180569600"/>
+        <c:crossAx val="48079616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -457,7 +463,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -465,7 +471,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -491,7 +497,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -627,11 +632,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181180288"/>
-        <c:axId val="181186560"/>
+        <c:axId val="51135616"/>
+        <c:axId val="51137536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181180288"/>
+        <c:axId val="51135616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,17 +657,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181186560"/>
+        <c:crossAx val="51137536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181186560"/>
+        <c:axId val="51137536"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -686,18 +690,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181180288"/>
+        <c:crossAx val="51135616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -713,7 +715,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -721,7 +723,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -747,7 +749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -883,11 +884,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181216768"/>
-        <c:axId val="181218688"/>
+        <c:axId val="51176192"/>
+        <c:axId val="51178112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181216768"/>
+        <c:axId val="51176192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,17 +909,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181218688"/>
+        <c:crossAx val="51178112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181218688"/>
+        <c:axId val="51178112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -942,18 +942,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181216768"/>
+        <c:crossAx val="51176192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -969,7 +967,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -977,7 +975,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1003,7 +1001,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1139,11 +1136,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181343360"/>
-        <c:axId val="181345280"/>
+        <c:axId val="51216768"/>
+        <c:axId val="51218688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181343360"/>
+        <c:axId val="51216768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,17 +1161,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181345280"/>
+        <c:crossAx val="51218688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181345280"/>
+        <c:axId val="51218688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1198,18 +1194,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181343360"/>
+        <c:crossAx val="51216768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1225,7 +1219,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1233,7 +1227,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1287,7 +1281,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$51:$B$58</c:f>
+              <c:f>Sheet2!$B$62:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1370,11 +1364,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181387264"/>
-        <c:axId val="181389184"/>
+        <c:axId val="51325952"/>
+        <c:axId val="51336320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181387264"/>
+        <c:axId val="51325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,14 +1392,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181389184"/>
+        <c:crossAx val="51336320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181389184"/>
+        <c:axId val="51336320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1430,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181387264"/>
+        <c:crossAx val="51325952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1459,7 +1453,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1467,7 +1461,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1571,7 +1565,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$51:$E$58</c:f>
+              <c:f>Sheet2!$E$62:$E$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1604,11 +1598,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181447296"/>
-        <c:axId val="181453568"/>
+        <c:axId val="51357568"/>
+        <c:axId val="51376128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181447296"/>
+        <c:axId val="51357568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,14 +1626,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181453568"/>
+        <c:crossAx val="51376128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181453568"/>
+        <c:axId val="51376128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1664,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181447296"/>
+        <c:crossAx val="51357568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1693,7 +1687,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1701,7 +1695,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1727,7 +1721,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1744,7 +1737,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AF$43:$AM$43</c:f>
+              <c:f>Sheet2!$AF$54:$AM$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1787,7 +1780,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AF$54:$AM$54</c:f>
+              <c:f>Sheet2!$AF$65:$AM$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1830,7 +1823,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AF$65:$AM$65</c:f>
+              <c:f>Sheet2!$AF$76:$AM$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1863,11 +1856,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87580672"/>
-        <c:axId val="87582592"/>
+        <c:axId val="51291648"/>
+        <c:axId val="51293568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87580672"/>
+        <c:axId val="51291648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,17 +1881,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87582592"/>
+        <c:crossAx val="51293568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87582592"/>
+        <c:axId val="51293568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1922,18 +1914,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87580672"/>
+        <c:crossAx val="51291648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1949,7 +1939,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1957,7 +1947,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1983,7 +1973,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2119,11 +2108,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="143152256"/>
-        <c:axId val="143269248"/>
+        <c:axId val="51381376"/>
+        <c:axId val="51383296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143152256"/>
+        <c:axId val="51381376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,17 +2133,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143269248"/>
+        <c:crossAx val="51383296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143269248"/>
+        <c:axId val="51383296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2178,18 +2166,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143152256"/>
+        <c:crossAx val="51381376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2205,7 +2191,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2213,7 +2199,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2256,7 +2242,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$54:$I$54</c:f>
+              <c:f>Sheet2!$B$65:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2299,7 +2285,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$54:$S$54</c:f>
+              <c:f>Sheet2!$L$65:$S$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2342,7 +2328,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$V$54:$AC$54</c:f>
+              <c:f>Sheet2!$V$65:$AC$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2385,7 +2371,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AF$54:$AM$54</c:f>
+              <c:f>Sheet2!$AF$65:$AM$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2418,11 +2404,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180488448"/>
-        <c:axId val="180498816"/>
+        <c:axId val="47543808"/>
+        <c:axId val="47545728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180488448"/>
+        <c:axId val="47543808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,14 +2432,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180498816"/>
+        <c:crossAx val="47545728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180498816"/>
+        <c:axId val="47545728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,7 +2465,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180488448"/>
+        <c:crossAx val="47543808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2502,7 +2488,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2510,7 +2496,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2536,7 +2522,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2553,7 +2538,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$65:$I$65</c:f>
+              <c:f>Sheet2!$B$76:$I$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2596,7 +2581,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$65:$S$65</c:f>
+              <c:f>Sheet2!$L$76:$S$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2639,7 +2624,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$V$65:$AC$65</c:f>
+              <c:f>Sheet2!$V$76:$AC$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2682,7 +2667,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AF$65:$AM$65</c:f>
+              <c:f>Sheet2!$AF$76:$AM$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2715,11 +2700,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180517504"/>
-        <c:axId val="180531968"/>
+        <c:axId val="50878336"/>
+        <c:axId val="50888704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180517504"/>
+        <c:axId val="50878336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2740,17 +2725,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180531968"/>
+        <c:crossAx val="50888704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180531968"/>
+        <c:axId val="50888704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,18 +2756,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180517504"/>
+        <c:crossAx val="50878336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2799,7 +2781,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2807,7 +2789,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2850,7 +2832,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$43:$I$43</c:f>
+              <c:f>Sheet2!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2893,7 +2875,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$54:$I$54</c:f>
+              <c:f>Sheet2!$B$65:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2936,7 +2918,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$65:$I$65</c:f>
+              <c:f>Sheet2!$B$76:$I$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2969,11 +2951,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180791552"/>
-        <c:axId val="180797824"/>
+        <c:axId val="50918912"/>
+        <c:axId val="50920832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180791552"/>
+        <c:axId val="50918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2997,14 +2979,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180797824"/>
+        <c:crossAx val="50920832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180797824"/>
+        <c:axId val="50920832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3032,7 +3014,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180791552"/>
+        <c:crossAx val="50918912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3055,7 +3037,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3063,7 +3045,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3106,7 +3088,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$43:$S$43</c:f>
+              <c:f>Sheet2!$L$54:$S$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3149,7 +3131,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$54:$S$54</c:f>
+              <c:f>Sheet2!$L$65:$S$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3192,7 +3174,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$65:$S$65</c:f>
+              <c:f>Sheet2!$L$76:$S$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3225,11 +3207,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180963200"/>
-        <c:axId val="180969472"/>
+        <c:axId val="96756864"/>
+        <c:axId val="96758784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180963200"/>
+        <c:axId val="96756864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,14 +3235,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180969472"/>
+        <c:crossAx val="96758784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180969472"/>
+        <c:axId val="96758784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3288,7 +3270,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180963200"/>
+        <c:crossAx val="96756864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3311,7 +3293,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3319,7 +3301,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3345,7 +3327,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3362,7 +3343,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$V$43:$AC$43</c:f>
+              <c:f>Sheet2!$V$54:$AC$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3405,7 +3386,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$V$54:$AC$54</c:f>
+              <c:f>Sheet2!$V$65:$AC$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3448,7 +3429,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$V$65:$AC$65</c:f>
+              <c:f>Sheet2!$V$76:$AC$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3481,11 +3462,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181003776"/>
-        <c:axId val="181005696"/>
+        <c:axId val="50942720"/>
+        <c:axId val="50944640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181003776"/>
+        <c:axId val="50942720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3506,17 +3487,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181005696"/>
+        <c:crossAx val="50944640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181005696"/>
+        <c:axId val="50944640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3540,18 +3520,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181003776"/>
+        <c:crossAx val="50942720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3567,7 +3545,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3575,7 +3553,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3608,7 +3586,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3787,11 +3764,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181045120"/>
-        <c:axId val="181051392"/>
+        <c:axId val="50979968"/>
+        <c:axId val="50981888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181045120"/>
+        <c:axId val="50979968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3812,17 +3789,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181051392"/>
+        <c:crossAx val="50981888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181051392"/>
+        <c:axId val="50981888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3844,18 +3820,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181045120"/>
+        <c:crossAx val="50979968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3871,7 +3845,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3879,7 +3853,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3913,7 +3887,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4092,11 +4065,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181094656"/>
-        <c:axId val="181100928"/>
+        <c:axId val="51029504"/>
+        <c:axId val="51031424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181094656"/>
+        <c:axId val="51029504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4117,17 +4090,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181100928"/>
+        <c:crossAx val="51031424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181100928"/>
+        <c:axId val="51031424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,18 +4121,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181094656"/>
+        <c:crossAx val="51029504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4176,7 +4146,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4184,7 +4154,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4218,7 +4188,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4397,11 +4366,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181135616"/>
-        <c:axId val="181154176"/>
+        <c:axId val="51090944"/>
+        <c:axId val="51092864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181135616"/>
+        <c:axId val="51090944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,17 +4391,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181154176"/>
+        <c:crossAx val="51092864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181154176"/>
+        <c:axId val="51092864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4454,18 +4422,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181135616"/>
+        <c:crossAx val="51090944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4481,7 +4447,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4529,7 +4495,7 @@
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>368325</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>182775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4553,13 +4519,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>387375</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>154200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4619,7 +4585,7 @@
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>15900</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4643,13 +4609,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>34950</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>154200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4673,13 +4639,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>396900</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>116100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4703,13 +4669,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>435000</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>106575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4733,13 +4699,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>444525</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>106575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4763,13 +4729,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>196875</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>135150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4793,13 +4759,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>225450</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>154200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4823,13 +4789,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>234975</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>144675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4852,15 +4818,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>262500</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>30975</xdr:rowOff>
+      <xdr:colOff>91050</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>11925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4882,15 +4848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>40500</xdr:rowOff>
+      <xdr:colOff>91050</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>135750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4913,13 +4879,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>63525</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>135150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4943,13 +4909,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>206400</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>78000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5257,10 +5223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM69"/>
+  <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AI60" sqref="AI60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8317,16 +8283,7 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:39">
@@ -8354,187 +8311,34 @@
       <c r="I39" t="s">
         <v>13</v>
       </c>
-      <c r="L39" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" t="s">
-        <v>7</v>
-      </c>
-      <c r="N39" t="s">
-        <v>8</v>
-      </c>
-      <c r="O39" t="s">
-        <v>9</v>
-      </c>
-      <c r="P39" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>11</v>
-      </c>
-      <c r="R39" t="s">
-        <v>12</v>
-      </c>
-      <c r="S39" t="s">
-        <v>13</v>
-      </c>
-      <c r="V39" t="s">
-        <v>6</v>
-      </c>
-      <c r="W39" t="s">
-        <v>7</v>
-      </c>
-      <c r="X39" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40" t="s">
         <v>14</v>
       </c>
       <c r="B40">
-        <v>2909</v>
+        <v>10069782</v>
       </c>
       <c r="C40">
-        <v>1438</v>
+        <v>8736749</v>
       </c>
       <c r="D40">
-        <v>967</v>
+        <v>7359580</v>
       </c>
       <c r="E40">
-        <v>745</v>
+        <v>6164645</v>
       </c>
       <c r="F40">
-        <v>585</v>
+        <v>5357319</v>
       </c>
       <c r="G40">
-        <v>455</v>
+        <v>4527427</v>
       </c>
       <c r="H40">
-        <v>407</v>
+        <v>3786885</v>
       </c>
       <c r="I40">
-        <v>350</v>
-      </c>
-      <c r="K40" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40">
-        <v>1761</v>
-      </c>
-      <c r="M40">
-        <v>899</v>
-      </c>
-      <c r="N40">
-        <v>592</v>
-      </c>
-      <c r="O40">
-        <v>418</v>
-      </c>
-      <c r="P40">
-        <v>349</v>
-      </c>
-      <c r="Q40">
-        <v>282</v>
-      </c>
-      <c r="R40">
-        <v>247</v>
-      </c>
-      <c r="S40">
-        <v>217</v>
-      </c>
-      <c r="U40" t="s">
-        <v>14</v>
-      </c>
-      <c r="V40">
-        <v>3845</v>
-      </c>
-      <c r="W40">
-        <v>1982</v>
-      </c>
-      <c r="X40">
-        <v>1294</v>
-      </c>
-      <c r="Y40">
-        <v>972</v>
-      </c>
-      <c r="Z40">
-        <v>774</v>
-      </c>
-      <c r="AA40">
-        <v>641</v>
-      </c>
-      <c r="AB40">
-        <v>550</v>
-      </c>
-      <c r="AC40">
-        <v>473</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF40">
-        <v>3254</v>
-      </c>
-      <c r="AG40">
-        <v>1624</v>
-      </c>
-      <c r="AH40">
-        <v>1065</v>
-      </c>
-      <c r="AI40">
-        <v>802</v>
-      </c>
-      <c r="AJ40">
-        <v>643</v>
-      </c>
-      <c r="AK40">
-        <v>534</v>
-      </c>
-      <c r="AL40">
-        <v>458</v>
-      </c>
-      <c r="AM40">
-        <v>399</v>
+        <v>2689792</v>
       </c>
     </row>
     <row r="41" spans="1:39">
@@ -8542,109 +8346,28 @@
         <v>15</v>
       </c>
       <c r="B41">
-        <v>3550</v>
+        <v>7489908</v>
       </c>
       <c r="C41">
-        <v>1701</v>
+        <v>6526982</v>
       </c>
       <c r="D41">
-        <v>1202</v>
+        <v>5453116</v>
       </c>
       <c r="E41">
-        <v>872</v>
+        <v>4565350</v>
       </c>
       <c r="F41">
-        <v>705</v>
+        <v>3886815</v>
       </c>
       <c r="G41">
-        <v>588</v>
+        <v>3296295</v>
       </c>
       <c r="H41">
-        <v>475</v>
+        <v>2907728</v>
       </c>
       <c r="I41">
-        <v>430</v>
-      </c>
-      <c r="K41" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41">
-        <v>2156</v>
-      </c>
-      <c r="M41">
-        <v>1003</v>
-      </c>
-      <c r="N41">
-        <v>707</v>
-      </c>
-      <c r="O41">
-        <v>514</v>
-      </c>
-      <c r="P41">
-        <v>419</v>
-      </c>
-      <c r="Q41">
-        <v>336</v>
-      </c>
-      <c r="R41">
-        <v>297</v>
-      </c>
-      <c r="S41">
-        <v>258</v>
-      </c>
-      <c r="U41" t="s">
-        <v>15</v>
-      </c>
-      <c r="V41">
-        <v>5219</v>
-      </c>
-      <c r="W41">
-        <v>2563</v>
-      </c>
-      <c r="X41">
-        <v>1693</v>
-      </c>
-      <c r="Y41">
-        <v>1262</v>
-      </c>
-      <c r="Z41">
-        <v>998</v>
-      </c>
-      <c r="AA41">
-        <v>834</v>
-      </c>
-      <c r="AB41">
-        <v>713</v>
-      </c>
-      <c r="AC41">
-        <v>621</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF41">
-        <v>4510</v>
-      </c>
-      <c r="AG41">
-        <v>2152</v>
-      </c>
-      <c r="AH41">
-        <v>1446</v>
-      </c>
-      <c r="AI41">
-        <v>1073</v>
-      </c>
-      <c r="AJ41">
-        <v>855</v>
-      </c>
-      <c r="AK41">
-        <v>710</v>
-      </c>
-      <c r="AL41">
-        <v>606</v>
-      </c>
-      <c r="AM41">
-        <v>528</v>
+        <v>2301558</v>
       </c>
     </row>
     <row r="42" spans="1:39">
@@ -8652,109 +8375,28 @@
         <v>16</v>
       </c>
       <c r="B42">
-        <v>3834</v>
+        <v>7149246</v>
       </c>
       <c r="C42">
-        <v>1804</v>
+        <v>5318787</v>
       </c>
       <c r="D42">
-        <v>1206</v>
+        <v>5725922</v>
       </c>
       <c r="E42">
-        <v>910</v>
+        <v>3891240</v>
       </c>
       <c r="F42">
-        <v>705</v>
+        <v>3287970</v>
       </c>
       <c r="G42">
-        <v>589</v>
+        <v>2862335</v>
       </c>
       <c r="H42">
-        <v>528</v>
+        <v>2514230</v>
       </c>
       <c r="I42">
-        <v>441</v>
-      </c>
-      <c r="K42" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42">
-        <v>2150</v>
-      </c>
-      <c r="M42">
-        <v>1103</v>
-      </c>
-      <c r="N42">
-        <v>692</v>
-      </c>
-      <c r="O42">
-        <v>534</v>
-      </c>
-      <c r="P42">
-        <v>424</v>
-      </c>
-      <c r="Q42">
-        <v>338</v>
-      </c>
-      <c r="R42">
-        <v>293</v>
-      </c>
-      <c r="S42">
-        <v>265</v>
-      </c>
-      <c r="U42" t="s">
-        <v>16</v>
-      </c>
-      <c r="V42">
-        <v>5826</v>
-      </c>
-      <c r="W42">
-        <v>2865</v>
-      </c>
-      <c r="X42">
-        <v>1880</v>
-      </c>
-      <c r="Y42">
-        <v>1393</v>
-      </c>
-      <c r="Z42">
-        <v>1114</v>
-      </c>
-      <c r="AA42">
-        <v>928</v>
-      </c>
-      <c r="AB42">
-        <v>794</v>
-      </c>
-      <c r="AC42">
-        <v>672</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF42">
-        <v>5007</v>
-      </c>
-      <c r="AG42">
-        <v>2404</v>
-      </c>
-      <c r="AH42">
-        <v>1592</v>
-      </c>
-      <c r="AI42">
-        <v>1178</v>
-      </c>
-      <c r="AJ42">
-        <v>929</v>
-      </c>
-      <c r="AK42">
-        <v>788</v>
-      </c>
-      <c r="AL42">
-        <v>655</v>
-      </c>
-      <c r="AM42">
-        <v>569</v>
+        <v>2080585</v>
       </c>
     </row>
     <row r="43" spans="1:39">
@@ -8762,109 +8404,28 @@
         <v>17</v>
       </c>
       <c r="B43">
-        <v>3742</v>
+        <v>5314168</v>
       </c>
       <c r="C43">
-        <v>1884</v>
+        <v>4501485</v>
       </c>
       <c r="D43">
-        <v>1204</v>
+        <v>3892188</v>
       </c>
       <c r="E43">
-        <v>906</v>
+        <v>3276682</v>
       </c>
       <c r="F43">
-        <v>746</v>
+        <v>2868544</v>
       </c>
       <c r="G43">
-        <v>608</v>
+        <v>2483889</v>
       </c>
       <c r="H43">
-        <v>510</v>
+        <v>2183352</v>
       </c>
       <c r="I43">
-        <v>440</v>
-      </c>
-      <c r="K43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43">
-        <v>2224</v>
-      </c>
-      <c r="M43">
-        <v>1112</v>
-      </c>
-      <c r="N43">
-        <v>698</v>
-      </c>
-      <c r="O43">
-        <v>523</v>
-      </c>
-      <c r="P43">
-        <v>430</v>
-      </c>
-      <c r="Q43">
-        <v>357</v>
-      </c>
-      <c r="R43">
-        <v>290</v>
-      </c>
-      <c r="S43">
-        <v>266</v>
-      </c>
-      <c r="U43" t="s">
-        <v>17</v>
-      </c>
-      <c r="V43">
-        <v>6044</v>
-      </c>
-      <c r="W43">
-        <v>2978</v>
-      </c>
-      <c r="X43">
-        <v>1963</v>
-      </c>
-      <c r="Y43">
-        <v>1456</v>
-      </c>
-      <c r="Z43">
-        <v>1166</v>
-      </c>
-      <c r="AA43">
-        <v>962</v>
-      </c>
-      <c r="AB43">
-        <v>815</v>
-      </c>
-      <c r="AC43">
-        <v>713</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF43">
-        <v>5299</v>
-      </c>
-      <c r="AG43">
-        <v>2595</v>
-      </c>
-      <c r="AH43">
-        <v>1688</v>
-      </c>
-      <c r="AI43">
-        <v>1258</v>
-      </c>
-      <c r="AJ43">
-        <v>988</v>
-      </c>
-      <c r="AK43">
-        <v>817</v>
-      </c>
-      <c r="AL43">
-        <v>696</v>
-      </c>
-      <c r="AM43">
-        <v>602</v>
+        <v>1845890</v>
       </c>
     </row>
     <row r="44" spans="1:39">
@@ -8872,109 +8433,28 @@
         <v>18</v>
       </c>
       <c r="B44">
-        <v>3806</v>
+        <v>4531635</v>
       </c>
       <c r="C44">
-        <v>1901</v>
+        <v>3899585</v>
       </c>
       <c r="D44">
-        <v>1267</v>
+        <v>3678885</v>
       </c>
       <c r="E44">
-        <v>941</v>
+        <v>3126871</v>
       </c>
       <c r="F44">
-        <v>753</v>
+        <v>2702327</v>
       </c>
       <c r="G44">
-        <v>631</v>
+        <v>2408430</v>
       </c>
       <c r="H44">
-        <v>539</v>
+        <v>2091723</v>
       </c>
       <c r="I44">
-        <v>466</v>
-      </c>
-      <c r="K44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44">
-        <v>2220</v>
-      </c>
-      <c r="M44">
-        <v>1119</v>
-      </c>
-      <c r="N44">
-        <v>735</v>
-      </c>
-      <c r="O44">
-        <v>523</v>
-      </c>
-      <c r="P44">
-        <v>435</v>
-      </c>
-      <c r="Q44">
-        <v>341</v>
-      </c>
-      <c r="R44">
-        <v>305</v>
-      </c>
-      <c r="S44">
-        <v>267</v>
-      </c>
-      <c r="U44" t="s">
-        <v>18</v>
-      </c>
-      <c r="V44">
-        <v>6298</v>
-      </c>
-      <c r="W44">
-        <v>3075</v>
-      </c>
-      <c r="X44">
-        <v>2027</v>
-      </c>
-      <c r="Y44">
-        <v>1509</v>
-      </c>
-      <c r="Z44">
-        <v>1191</v>
-      </c>
-      <c r="AA44">
-        <v>992</v>
-      </c>
-      <c r="AB44">
-        <v>840</v>
-      </c>
-      <c r="AC44">
-        <v>735</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF44">
-        <v>5536</v>
-      </c>
-      <c r="AG44">
-        <v>2678</v>
-      </c>
-      <c r="AH44">
-        <v>1773</v>
-      </c>
-      <c r="AI44">
-        <v>1314</v>
-      </c>
-      <c r="AJ44">
-        <v>1037</v>
-      </c>
-      <c r="AK44">
-        <v>847</v>
-      </c>
-      <c r="AL44">
-        <v>716</v>
-      </c>
-      <c r="AM44">
-        <v>623</v>
+        <v>1555216</v>
       </c>
     </row>
     <row r="45" spans="1:39">
@@ -8982,109 +8462,28 @@
         <v>19</v>
       </c>
       <c r="B45">
-        <v>3951</v>
+        <v>4764991</v>
       </c>
       <c r="C45">
-        <v>1958</v>
+        <v>4040055</v>
       </c>
       <c r="D45">
-        <v>1373</v>
+        <v>3790918</v>
       </c>
       <c r="E45">
-        <v>972</v>
+        <v>3299163</v>
       </c>
       <c r="F45">
-        <v>777</v>
+        <v>2750590</v>
       </c>
       <c r="G45">
-        <v>631</v>
+        <v>2459851</v>
       </c>
       <c r="H45">
-        <v>545</v>
+        <v>2149692</v>
       </c>
       <c r="I45">
-        <v>495</v>
-      </c>
-      <c r="K45" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45">
-        <v>2353</v>
-      </c>
-      <c r="M45">
-        <v>1078</v>
-      </c>
-      <c r="N45">
-        <v>736</v>
-      </c>
-      <c r="O45">
-        <v>531</v>
-      </c>
-      <c r="P45">
-        <v>439</v>
-      </c>
-      <c r="Q45">
-        <v>360</v>
-      </c>
-      <c r="R45">
-        <v>302</v>
-      </c>
-      <c r="S45">
-        <v>271</v>
-      </c>
-      <c r="U45" t="s">
-        <v>19</v>
-      </c>
-      <c r="V45">
-        <v>6373</v>
-      </c>
-      <c r="W45">
-        <v>3141</v>
-      </c>
-      <c r="X45">
-        <v>2066</v>
-      </c>
-      <c r="Y45">
-        <v>1526</v>
-      </c>
-      <c r="Z45">
-        <v>1213</v>
-      </c>
-      <c r="AA45">
-        <v>999</v>
-      </c>
-      <c r="AB45">
-        <v>861</v>
-      </c>
-      <c r="AC45">
-        <v>740</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF45">
-        <v>5741</v>
-      </c>
-      <c r="AG45">
-        <v>2749</v>
-      </c>
-      <c r="AH45">
-        <v>1816</v>
-      </c>
-      <c r="AI45">
-        <v>1342</v>
-      </c>
-      <c r="AJ45">
-        <v>1056</v>
-      </c>
-      <c r="AK45">
-        <v>870</v>
-      </c>
-      <c r="AL45">
-        <v>731</v>
-      </c>
-      <c r="AM45">
-        <v>632</v>
+        <v>1543167</v>
       </c>
     </row>
     <row r="46" spans="1:39">
@@ -9092,109 +8491,28 @@
         <v>20</v>
       </c>
       <c r="B46">
-        <v>4046</v>
+        <v>4933737</v>
       </c>
       <c r="C46">
-        <v>2029</v>
+        <v>4136594</v>
       </c>
       <c r="D46">
-        <v>1357</v>
+        <v>3872380</v>
       </c>
       <c r="E46">
-        <v>1017</v>
+        <v>3309020</v>
       </c>
       <c r="F46">
-        <v>813</v>
+        <v>2805250</v>
       </c>
       <c r="G46">
-        <v>640</v>
+        <v>2470896</v>
       </c>
       <c r="H46">
-        <v>549</v>
+        <v>2170246</v>
       </c>
       <c r="I46">
-        <v>470</v>
-      </c>
-      <c r="K46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46">
-        <v>2372</v>
-      </c>
-      <c r="M46">
-        <v>1068</v>
-      </c>
-      <c r="N46">
-        <v>748</v>
-      </c>
-      <c r="O46">
-        <v>541</v>
-      </c>
-      <c r="P46">
-        <v>444</v>
-      </c>
-      <c r="Q46">
-        <v>358</v>
-      </c>
-      <c r="R46">
-        <v>310</v>
-      </c>
-      <c r="S46">
-        <v>275</v>
-      </c>
-      <c r="U46" t="s">
-        <v>20</v>
-      </c>
-      <c r="V46">
-        <v>6467</v>
-      </c>
-      <c r="W46">
-        <v>3151</v>
-      </c>
-      <c r="X46">
-        <v>2085</v>
-      </c>
-      <c r="Y46">
-        <v>1553</v>
-      </c>
-      <c r="Z46">
-        <v>1232</v>
-      </c>
-      <c r="AA46">
-        <v>1025</v>
-      </c>
-      <c r="AB46">
-        <v>864</v>
-      </c>
-      <c r="AC46">
-        <v>747</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF46">
-        <v>5832</v>
-      </c>
-      <c r="AG46">
-        <v>2786</v>
-      </c>
-      <c r="AH46">
-        <v>1792</v>
-      </c>
-      <c r="AI46">
-        <v>1358</v>
-      </c>
-      <c r="AJ46">
-        <v>1076</v>
-      </c>
-      <c r="AK46">
-        <v>885</v>
-      </c>
-      <c r="AL46">
-        <v>744</v>
-      </c>
-      <c r="AM46">
-        <v>641</v>
+        <v>1559174</v>
       </c>
     </row>
     <row r="47" spans="1:39">
@@ -9202,123 +8520,42 @@
         <v>21</v>
       </c>
       <c r="B47">
-        <v>4496</v>
+        <v>4841813</v>
       </c>
       <c r="C47">
-        <v>2014</v>
+        <v>4253667</v>
       </c>
       <c r="D47">
-        <v>1402</v>
+        <v>3967508</v>
       </c>
       <c r="E47">
-        <v>1020</v>
+        <v>3358823</v>
       </c>
       <c r="F47">
-        <v>777</v>
+        <v>2861877</v>
       </c>
       <c r="G47">
-        <v>677</v>
+        <v>2497987</v>
       </c>
       <c r="H47">
-        <v>543</v>
+        <v>2180971</v>
       </c>
       <c r="I47">
-        <v>517</v>
-      </c>
-      <c r="K47" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47">
-        <v>2348</v>
-      </c>
-      <c r="M47">
-        <v>1128</v>
-      </c>
-      <c r="N47">
-        <v>754</v>
-      </c>
-      <c r="O47">
-        <v>560</v>
-      </c>
-      <c r="P47">
-        <v>421</v>
-      </c>
-      <c r="Q47">
-        <v>370</v>
-      </c>
-      <c r="R47">
-        <v>314</v>
-      </c>
-      <c r="S47">
-        <v>259</v>
-      </c>
-      <c r="U47" t="s">
-        <v>21</v>
-      </c>
-      <c r="V47">
-        <v>6432</v>
-      </c>
-      <c r="W47">
-        <v>3187</v>
-      </c>
-      <c r="X47">
-        <v>2105</v>
-      </c>
-      <c r="Y47">
-        <v>1561</v>
-      </c>
-      <c r="Z47">
-        <v>1240</v>
-      </c>
-      <c r="AA47">
-        <v>1018</v>
-      </c>
-      <c r="AB47">
-        <v>862</v>
-      </c>
-      <c r="AC47">
-        <v>746</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF47">
-        <v>5869</v>
-      </c>
-      <c r="AG47">
-        <v>2849</v>
-      </c>
-      <c r="AH47">
-        <v>1872</v>
-      </c>
-      <c r="AI47">
-        <v>1385</v>
-      </c>
-      <c r="AJ47">
-        <v>1085</v>
-      </c>
-      <c r="AK47">
-        <v>882</v>
-      </c>
-      <c r="AL47">
-        <v>741</v>
-      </c>
-      <c r="AM47">
-        <v>643</v>
+        <v>1567126</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:39">
@@ -9424,109 +8661,109 @@
         <v>14</v>
       </c>
       <c r="B51">
-        <v>591620</v>
+        <v>2909</v>
       </c>
       <c r="C51">
-        <v>297724</v>
+        <v>1438</v>
       </c>
       <c r="D51">
-        <v>201182</v>
+        <v>967</v>
       </c>
       <c r="E51">
-        <v>151854</v>
+        <v>745</v>
       </c>
       <c r="F51">
-        <v>105881</v>
+        <v>585</v>
       </c>
       <c r="G51">
-        <v>101090</v>
+        <v>455</v>
       </c>
       <c r="H51">
-        <v>84476</v>
+        <v>407</v>
       </c>
       <c r="I51">
-        <v>76541</v>
+        <v>350</v>
       </c>
       <c r="K51" t="s">
         <v>14</v>
       </c>
       <c r="L51">
-        <v>1045024</v>
+        <v>1761</v>
       </c>
       <c r="M51">
-        <v>520411</v>
+        <v>899</v>
       </c>
       <c r="N51">
-        <v>355979</v>
+        <v>592</v>
       </c>
       <c r="O51">
-        <v>266540</v>
+        <v>418</v>
       </c>
       <c r="P51">
-        <v>211000</v>
+        <v>349</v>
       </c>
       <c r="Q51">
-        <v>148776</v>
+        <v>282</v>
       </c>
       <c r="R51">
-        <v>151066</v>
+        <v>247</v>
       </c>
       <c r="S51">
-        <v>131804</v>
+        <v>217</v>
       </c>
       <c r="U51" t="s">
         <v>14</v>
       </c>
       <c r="V51">
-        <v>1325742</v>
+        <v>3845</v>
       </c>
       <c r="W51">
-        <v>651134</v>
+        <v>1982</v>
       </c>
       <c r="X51">
-        <v>445110</v>
+        <v>1294</v>
       </c>
       <c r="Y51">
-        <v>335650</v>
+        <v>972</v>
       </c>
       <c r="Z51">
-        <v>235706</v>
+        <v>774</v>
       </c>
       <c r="AA51">
-        <v>221729</v>
+        <v>641</v>
       </c>
       <c r="AB51">
-        <v>190568</v>
+        <v>550</v>
       </c>
       <c r="AC51">
-        <v>141714</v>
+        <v>473</v>
       </c>
       <c r="AE51" t="s">
         <v>14</v>
       </c>
       <c r="AF51">
-        <v>1280670</v>
+        <v>3254</v>
       </c>
       <c r="AG51">
-        <v>656689</v>
+        <v>1624</v>
       </c>
       <c r="AH51">
-        <v>437435</v>
+        <v>1065</v>
       </c>
       <c r="AI51">
-        <v>323985</v>
+        <v>802</v>
       </c>
       <c r="AJ51">
-        <v>251656</v>
+        <v>643</v>
       </c>
       <c r="AK51">
-        <v>199019</v>
+        <v>534</v>
       </c>
       <c r="AL51">
-        <v>167644</v>
+        <v>458</v>
       </c>
       <c r="AM51">
-        <v>163807</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:39">
@@ -9534,109 +8771,109 @@
         <v>15</v>
       </c>
       <c r="B52">
-        <v>873678</v>
+        <v>3550</v>
       </c>
       <c r="C52">
-        <v>443791</v>
+        <v>1701</v>
       </c>
       <c r="D52">
-        <v>287517</v>
+        <v>1202</v>
       </c>
       <c r="E52">
-        <v>213171</v>
+        <v>872</v>
       </c>
       <c r="F52">
-        <v>169548</v>
+        <v>705</v>
       </c>
       <c r="G52">
-        <v>138431</v>
+        <v>588</v>
       </c>
       <c r="H52">
-        <v>120790</v>
+        <v>475</v>
       </c>
       <c r="I52">
-        <v>105809</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s">
         <v>15</v>
       </c>
       <c r="L52">
-        <v>1477402</v>
+        <v>2156</v>
       </c>
       <c r="M52">
-        <v>528860</v>
+        <v>1003</v>
       </c>
       <c r="N52">
-        <v>135038</v>
+        <v>707</v>
       </c>
       <c r="O52">
-        <v>145839</v>
+        <v>514</v>
       </c>
       <c r="P52">
-        <v>235155</v>
+        <v>419</v>
       </c>
       <c r="Q52">
-        <v>154452</v>
+        <v>336</v>
       </c>
       <c r="R52">
-        <v>90226</v>
+        <v>297</v>
       </c>
       <c r="S52">
-        <v>35991</v>
+        <v>258</v>
       </c>
       <c r="U52" t="s">
         <v>15</v>
       </c>
       <c r="V52">
-        <v>1680911</v>
+        <v>5219</v>
       </c>
       <c r="W52">
-        <v>792593</v>
+        <v>2563</v>
       </c>
       <c r="X52">
-        <v>506289</v>
+        <v>1693</v>
       </c>
       <c r="Y52">
-        <v>370064</v>
+        <v>1262</v>
       </c>
       <c r="Z52">
-        <v>284546</v>
+        <v>998</v>
       </c>
       <c r="AA52">
-        <v>225984</v>
+        <v>834</v>
       </c>
       <c r="AB52">
-        <v>159069</v>
+        <v>713</v>
       </c>
       <c r="AC52">
-        <v>153741</v>
+        <v>621</v>
       </c>
       <c r="AE52" t="s">
         <v>15</v>
       </c>
       <c r="AF52">
-        <v>1658985</v>
+        <v>4510</v>
       </c>
       <c r="AG52">
-        <v>780909</v>
+        <v>2152</v>
       </c>
       <c r="AH52">
-        <v>486963</v>
+        <v>1446</v>
       </c>
       <c r="AI52">
-        <v>362693</v>
+        <v>1073</v>
       </c>
       <c r="AJ52">
-        <v>287461</v>
+        <v>855</v>
       </c>
       <c r="AK52">
-        <v>214017</v>
+        <v>710</v>
       </c>
       <c r="AL52">
-        <v>198650</v>
+        <v>606</v>
       </c>
       <c r="AM52">
-        <v>155709</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:39">
@@ -9644,109 +8881,109 @@
         <v>16</v>
       </c>
       <c r="B53">
-        <v>1013366</v>
+        <v>3834</v>
       </c>
       <c r="C53">
-        <v>493416</v>
+        <v>1804</v>
       </c>
       <c r="D53">
-        <v>316390</v>
+        <v>1206</v>
       </c>
       <c r="E53">
-        <v>227890</v>
+        <v>910</v>
       </c>
       <c r="F53">
-        <v>183447</v>
+        <v>705</v>
       </c>
       <c r="G53">
-        <v>151368</v>
+        <v>589</v>
       </c>
       <c r="H53">
-        <v>129916</v>
+        <v>528</v>
       </c>
       <c r="I53">
-        <v>114330</v>
+        <v>441</v>
       </c>
       <c r="K53" t="s">
         <v>16</v>
       </c>
       <c r="L53">
-        <v>194610</v>
+        <v>2150</v>
       </c>
       <c r="M53">
-        <v>77004</v>
+        <v>1103</v>
       </c>
       <c r="N53">
-        <v>35954</v>
+        <v>692</v>
       </c>
       <c r="O53">
-        <v>38425</v>
+        <v>534</v>
       </c>
       <c r="P53">
-        <v>25111</v>
+        <v>424</v>
       </c>
       <c r="Q53">
-        <v>50603</v>
+        <v>338</v>
       </c>
       <c r="R53">
-        <v>43209</v>
+        <v>293</v>
       </c>
       <c r="S53">
-        <v>15568</v>
+        <v>265</v>
       </c>
       <c r="U53" t="s">
         <v>16</v>
       </c>
       <c r="V53">
-        <v>1766110</v>
+        <v>5826</v>
       </c>
       <c r="W53">
-        <v>807595</v>
+        <v>2865</v>
       </c>
       <c r="X53">
-        <v>485385</v>
+        <v>1880</v>
       </c>
       <c r="Y53">
-        <v>338797</v>
+        <v>1393</v>
       </c>
       <c r="Z53">
-        <v>276625</v>
+        <v>1114</v>
       </c>
       <c r="AA53">
-        <v>221715</v>
+        <v>928</v>
       </c>
       <c r="AB53">
-        <v>182034</v>
+        <v>794</v>
       </c>
       <c r="AC53">
-        <v>158496</v>
+        <v>672</v>
       </c>
       <c r="AE53" t="s">
         <v>16</v>
       </c>
       <c r="AF53">
-        <v>1733442</v>
+        <v>5007</v>
       </c>
       <c r="AG53">
-        <v>795368</v>
+        <v>2404</v>
       </c>
       <c r="AH53">
-        <v>495761</v>
+        <v>1592</v>
       </c>
       <c r="AI53">
-        <v>356799</v>
+        <v>1178</v>
       </c>
       <c r="AJ53">
-        <v>256000</v>
+        <v>929</v>
       </c>
       <c r="AK53">
-        <v>216859</v>
+        <v>788</v>
       </c>
       <c r="AL53">
-        <v>185515</v>
+        <v>655</v>
       </c>
       <c r="AM53">
-        <v>160322</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:39">
@@ -9754,109 +8991,109 @@
         <v>17</v>
       </c>
       <c r="B54">
-        <v>1077461</v>
+        <v>3742</v>
       </c>
       <c r="C54">
-        <v>535494</v>
+        <v>1884</v>
       </c>
       <c r="D54">
-        <v>348619</v>
+        <v>1204</v>
       </c>
       <c r="E54">
-        <v>245531</v>
+        <v>906</v>
       </c>
       <c r="F54">
-        <v>197498</v>
+        <v>746</v>
       </c>
       <c r="G54">
-        <v>155970</v>
+        <v>608</v>
       </c>
       <c r="H54">
-        <v>138553</v>
+        <v>510</v>
       </c>
       <c r="I54">
-        <v>118115</v>
+        <v>440</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
       </c>
       <c r="L54">
-        <v>132911</v>
+        <v>2224</v>
       </c>
       <c r="M54">
-        <v>61955</v>
+        <v>1112</v>
       </c>
       <c r="N54">
-        <v>119189</v>
+        <v>698</v>
       </c>
       <c r="O54">
-        <v>64402</v>
+        <v>523</v>
       </c>
       <c r="P54">
-        <v>40900</v>
+        <v>430</v>
       </c>
       <c r="Q54">
-        <v>47368</v>
+        <v>357</v>
       </c>
       <c r="R54">
-        <v>27307</v>
+        <v>290</v>
       </c>
       <c r="S54">
-        <v>16595</v>
+        <v>266</v>
       </c>
       <c r="U54" t="s">
         <v>17</v>
       </c>
       <c r="V54">
-        <v>1733640</v>
+        <v>6044</v>
       </c>
       <c r="W54">
-        <v>748291</v>
+        <v>2978</v>
       </c>
       <c r="X54">
-        <v>445838</v>
+        <v>1963</v>
       </c>
       <c r="Y54">
-        <v>306652</v>
+        <v>1456</v>
       </c>
       <c r="Z54">
-        <v>230967</v>
+        <v>1166</v>
       </c>
       <c r="AA54">
-        <v>189784</v>
+        <v>962</v>
       </c>
       <c r="AB54">
-        <v>157505</v>
+        <v>815</v>
       </c>
       <c r="AC54">
-        <v>136059</v>
+        <v>713</v>
       </c>
       <c r="AE54" t="s">
         <v>17</v>
       </c>
       <c r="AF54">
-        <v>1701304</v>
+        <v>5299</v>
       </c>
       <c r="AG54">
-        <v>740913</v>
+        <v>2595</v>
       </c>
       <c r="AH54">
-        <v>441650</v>
+        <v>1688</v>
       </c>
       <c r="AI54">
-        <v>299441</v>
+        <v>1258</v>
       </c>
       <c r="AJ54">
-        <v>229149</v>
+        <v>988</v>
       </c>
       <c r="AK54">
-        <v>182145</v>
+        <v>817</v>
       </c>
       <c r="AL54">
-        <v>153369</v>
+        <v>696</v>
       </c>
       <c r="AM54">
-        <v>134874</v>
+        <v>602</v>
       </c>
     </row>
     <row r="55" spans="1:39">
@@ -9864,109 +9101,109 @@
         <v>18</v>
       </c>
       <c r="B55">
-        <v>1066335</v>
+        <v>3806</v>
       </c>
       <c r="C55">
-        <v>528127</v>
+        <v>1901</v>
       </c>
       <c r="D55">
-        <v>341497</v>
+        <v>1267</v>
       </c>
       <c r="E55">
-        <v>250788</v>
+        <v>941</v>
       </c>
       <c r="F55">
-        <v>192878</v>
+        <v>753</v>
       </c>
       <c r="G55">
-        <v>158116</v>
+        <v>631</v>
       </c>
       <c r="H55">
-        <v>137599</v>
+        <v>539</v>
       </c>
       <c r="I55">
-        <v>115318</v>
+        <v>466</v>
       </c>
       <c r="K55" t="s">
         <v>18</v>
       </c>
       <c r="L55">
-        <v>350358</v>
+        <v>2220</v>
       </c>
       <c r="M55">
-        <v>197264</v>
+        <v>1119</v>
       </c>
       <c r="N55">
-        <v>92625</v>
+        <v>735</v>
       </c>
       <c r="O55">
-        <v>95750</v>
+        <v>523</v>
       </c>
       <c r="P55">
-        <v>66667</v>
+        <v>435</v>
       </c>
       <c r="Q55">
-        <v>38116</v>
+        <v>341</v>
       </c>
       <c r="R55">
-        <v>43134</v>
+        <v>305</v>
       </c>
       <c r="S55">
-        <v>36594</v>
+        <v>267</v>
       </c>
       <c r="U55" t="s">
         <v>18</v>
       </c>
       <c r="V55">
-        <v>1672027</v>
+        <v>6298</v>
       </c>
       <c r="W55">
-        <v>699749</v>
+        <v>3075</v>
       </c>
       <c r="X55">
-        <v>426576</v>
+        <v>2027</v>
       </c>
       <c r="Y55">
-        <v>297692</v>
+        <v>1509</v>
       </c>
       <c r="Z55">
-        <v>228880</v>
+        <v>1191</v>
       </c>
       <c r="AA55">
-        <v>179782</v>
+        <v>992</v>
       </c>
       <c r="AB55">
-        <v>153433</v>
+        <v>840</v>
       </c>
       <c r="AC55">
-        <v>135206</v>
+        <v>735</v>
       </c>
       <c r="AE55" t="s">
         <v>18</v>
       </c>
       <c r="AF55">
-        <v>1638192</v>
+        <v>5536</v>
       </c>
       <c r="AG55">
-        <v>701754</v>
+        <v>2678</v>
       </c>
       <c r="AH55">
-        <v>425566</v>
+        <v>1773</v>
       </c>
       <c r="AI55">
-        <v>288508</v>
+        <v>1314</v>
       </c>
       <c r="AJ55">
-        <v>213805</v>
+        <v>1037</v>
       </c>
       <c r="AK55">
-        <v>179101</v>
+        <v>847</v>
       </c>
       <c r="AL55">
-        <v>154379</v>
+        <v>716</v>
       </c>
       <c r="AM55">
-        <v>131910</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:39">
@@ -9974,109 +9211,109 @@
         <v>19</v>
       </c>
       <c r="B56">
-        <v>1062478</v>
+        <v>3951</v>
       </c>
       <c r="C56">
-        <v>504259</v>
+        <v>1958</v>
       </c>
       <c r="D56">
-        <v>337299</v>
+        <v>1373</v>
       </c>
       <c r="E56">
-        <v>250581</v>
+        <v>972</v>
       </c>
       <c r="F56">
-        <v>191613</v>
+        <v>777</v>
       </c>
       <c r="G56">
-        <v>160244</v>
+        <v>631</v>
       </c>
       <c r="H56">
-        <v>130926</v>
+        <v>545</v>
       </c>
       <c r="I56">
-        <v>118840</v>
+        <v>495</v>
       </c>
       <c r="K56" t="s">
         <v>19</v>
       </c>
       <c r="L56">
-        <v>332401</v>
+        <v>2353</v>
       </c>
       <c r="M56">
-        <v>195857</v>
+        <v>1078</v>
       </c>
       <c r="N56">
-        <v>87038</v>
+        <v>736</v>
       </c>
       <c r="O56">
-        <v>64157</v>
+        <v>531</v>
       </c>
       <c r="P56">
-        <v>54242</v>
+        <v>439</v>
       </c>
       <c r="Q56">
-        <v>58424</v>
+        <v>360</v>
       </c>
       <c r="R56">
-        <v>38474</v>
+        <v>302</v>
       </c>
       <c r="S56">
-        <v>37733</v>
+        <v>271</v>
       </c>
       <c r="U56" t="s">
         <v>19</v>
       </c>
       <c r="V56">
-        <v>1620083</v>
+        <v>6373</v>
       </c>
       <c r="W56">
-        <v>690979</v>
+        <v>3141</v>
       </c>
       <c r="X56">
-        <v>414241</v>
+        <v>2066</v>
       </c>
       <c r="Y56">
-        <v>291869</v>
+        <v>1526</v>
       </c>
       <c r="Z56">
-        <v>215476</v>
+        <v>1213</v>
       </c>
       <c r="AA56">
-        <v>178984</v>
+        <v>999</v>
       </c>
       <c r="AB56">
-        <v>153737</v>
+        <v>861</v>
       </c>
       <c r="AC56">
-        <v>131952</v>
+        <v>740</v>
       </c>
       <c r="AE56" t="s">
         <v>19</v>
       </c>
       <c r="AF56">
-        <v>1616108</v>
+        <v>5741</v>
       </c>
       <c r="AG56">
-        <v>691817</v>
+        <v>2749</v>
       </c>
       <c r="AH56">
-        <v>417782</v>
+        <v>1816</v>
       </c>
       <c r="AI56">
-        <v>288313</v>
+        <v>1342</v>
       </c>
       <c r="AJ56">
-        <v>222022</v>
+        <v>1056</v>
       </c>
       <c r="AK56">
-        <v>176361</v>
+        <v>870</v>
       </c>
       <c r="AL56">
-        <v>150580</v>
+        <v>731</v>
       </c>
       <c r="AM56">
-        <v>132539</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:39">
@@ -10084,109 +9321,109 @@
         <v>20</v>
       </c>
       <c r="B57">
-        <v>1044140</v>
+        <v>4046</v>
       </c>
       <c r="C57">
-        <v>508833</v>
+        <v>2029</v>
       </c>
       <c r="D57">
-        <v>336061</v>
+        <v>1357</v>
       </c>
       <c r="E57">
-        <v>246945</v>
+        <v>1017</v>
       </c>
       <c r="F57">
-        <v>186329</v>
+        <v>813</v>
       </c>
       <c r="G57">
-        <v>157049</v>
+        <v>640</v>
       </c>
       <c r="H57">
-        <v>136279</v>
+        <v>549</v>
       </c>
       <c r="I57">
-        <v>114955</v>
+        <v>470</v>
       </c>
       <c r="K57" t="s">
         <v>20</v>
       </c>
       <c r="L57">
-        <v>333198</v>
+        <v>2372</v>
       </c>
       <c r="M57">
-        <v>200036</v>
+        <v>1068</v>
       </c>
       <c r="N57">
-        <v>129953</v>
+        <v>748</v>
       </c>
       <c r="O57">
-        <v>95895</v>
+        <v>541</v>
       </c>
       <c r="P57">
-        <v>58470</v>
+        <v>444</v>
       </c>
       <c r="Q57">
-        <v>48473</v>
+        <v>358</v>
       </c>
       <c r="R57">
-        <v>51701</v>
+        <v>310</v>
       </c>
       <c r="S57">
-        <v>39208</v>
+        <v>275</v>
       </c>
       <c r="U57" t="s">
         <v>20</v>
       </c>
       <c r="V57">
-        <v>1597822</v>
+        <v>6467</v>
       </c>
       <c r="W57">
-        <v>675096</v>
+        <v>3151</v>
       </c>
       <c r="X57">
-        <v>414863</v>
+        <v>2085</v>
       </c>
       <c r="Y57">
-        <v>290919</v>
+        <v>1553</v>
       </c>
       <c r="Z57">
-        <v>223037</v>
+        <v>1232</v>
       </c>
       <c r="AA57">
-        <v>177217</v>
+        <v>1025</v>
       </c>
       <c r="AB57">
-        <v>151001</v>
+        <v>864</v>
       </c>
       <c r="AC57">
-        <v>132833</v>
+        <v>747</v>
       </c>
       <c r="AE57" t="s">
         <v>20</v>
       </c>
       <c r="AF57">
-        <v>1551642</v>
+        <v>5832</v>
       </c>
       <c r="AG57">
-        <v>665967</v>
+        <v>2786</v>
       </c>
       <c r="AH57">
-        <v>407890</v>
+        <v>1792</v>
       </c>
       <c r="AI57">
-        <v>287003</v>
+        <v>1358</v>
       </c>
       <c r="AJ57">
-        <v>212915</v>
+        <v>1076</v>
       </c>
       <c r="AK57">
-        <v>175691</v>
+        <v>885</v>
       </c>
       <c r="AL57">
-        <v>151625</v>
+        <v>744</v>
       </c>
       <c r="AM57">
-        <v>129728</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:39">
@@ -10194,123 +9431,123 @@
         <v>21</v>
       </c>
       <c r="B58">
-        <v>1039428</v>
+        <v>4496</v>
       </c>
       <c r="C58">
-        <v>511027</v>
+        <v>2014</v>
       </c>
       <c r="D58">
-        <v>335178</v>
+        <v>1402</v>
       </c>
       <c r="E58">
-        <v>247347</v>
+        <v>1020</v>
       </c>
       <c r="F58">
-        <v>189047</v>
+        <v>777</v>
       </c>
       <c r="G58">
-        <v>153060</v>
+        <v>677</v>
       </c>
       <c r="H58">
-        <v>132999</v>
+        <v>543</v>
       </c>
       <c r="I58">
-        <v>118271</v>
+        <v>517</v>
       </c>
       <c r="K58" t="s">
         <v>21</v>
       </c>
       <c r="L58">
-        <v>427728</v>
+        <v>2348</v>
       </c>
       <c r="M58">
-        <v>193048</v>
+        <v>1128</v>
       </c>
       <c r="N58">
-        <v>127801</v>
+        <v>754</v>
       </c>
       <c r="O58">
-        <v>94760</v>
+        <v>560</v>
       </c>
       <c r="P58">
-        <v>74075</v>
+        <v>421</v>
       </c>
       <c r="Q58">
-        <v>60952</v>
+        <v>370</v>
       </c>
       <c r="R58">
-        <v>42841</v>
+        <v>314</v>
       </c>
       <c r="S58">
-        <v>36861</v>
+        <v>259</v>
       </c>
       <c r="U58" t="s">
         <v>21</v>
       </c>
       <c r="V58">
-        <v>1582453</v>
+        <v>6432</v>
       </c>
       <c r="W58">
-        <v>661316</v>
+        <v>3187</v>
       </c>
       <c r="X58">
-        <v>406077</v>
+        <v>2105</v>
       </c>
       <c r="Y58">
-        <v>285991</v>
+        <v>1561</v>
       </c>
       <c r="Z58">
-        <v>215080</v>
+        <v>1240</v>
       </c>
       <c r="AA58">
-        <v>177074</v>
+        <v>1018</v>
       </c>
       <c r="AB58">
-        <v>153112</v>
+        <v>862</v>
       </c>
       <c r="AC58">
-        <v>130403</v>
+        <v>746</v>
       </c>
       <c r="AE58" t="s">
         <v>21</v>
       </c>
       <c r="AF58">
-        <v>1541039</v>
+        <v>5869</v>
       </c>
       <c r="AG58">
-        <v>647714</v>
+        <v>2849</v>
       </c>
       <c r="AH58">
-        <v>401734</v>
+        <v>1872</v>
       </c>
       <c r="AI58">
-        <v>279177</v>
+        <v>1385</v>
       </c>
       <c r="AJ58">
-        <v>215794</v>
+        <v>1085</v>
       </c>
       <c r="AK58">
-        <v>172387</v>
+        <v>882</v>
       </c>
       <c r="AL58">
-        <v>146291</v>
+        <v>741</v>
       </c>
       <c r="AM58">
-        <v>129103</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:39">
@@ -10416,109 +9653,109 @@
         <v>14</v>
       </c>
       <c r="B62">
-        <v>62262</v>
+        <v>591620</v>
       </c>
       <c r="C62">
-        <v>63195</v>
+        <v>297724</v>
       </c>
       <c r="D62">
-        <v>63276</v>
+        <v>201182</v>
       </c>
       <c r="E62">
-        <v>62959</v>
+        <v>151854</v>
       </c>
       <c r="F62">
-        <v>63238</v>
+        <v>105881</v>
       </c>
       <c r="G62">
-        <v>62377</v>
+        <v>101090</v>
       </c>
       <c r="H62">
-        <v>63595</v>
+        <v>84476</v>
       </c>
       <c r="I62">
-        <v>63185</v>
+        <v>76541</v>
       </c>
       <c r="K62" t="s">
         <v>14</v>
       </c>
       <c r="L62">
-        <v>73684</v>
+        <v>1045024</v>
       </c>
       <c r="M62">
-        <v>73841</v>
+        <v>520411</v>
       </c>
       <c r="N62">
-        <v>73987</v>
+        <v>355979</v>
       </c>
       <c r="O62">
-        <v>73157</v>
+        <v>266540</v>
       </c>
       <c r="P62">
-        <v>74479</v>
+        <v>211000</v>
       </c>
       <c r="Q62">
-        <v>74293</v>
+        <v>148776</v>
       </c>
       <c r="R62">
-        <v>73735</v>
+        <v>151066</v>
       </c>
       <c r="S62">
-        <v>74128</v>
+        <v>131804</v>
       </c>
       <c r="U62" t="s">
         <v>14</v>
       </c>
       <c r="V62">
-        <v>87128</v>
+        <v>1325742</v>
       </c>
       <c r="W62">
-        <v>87425</v>
+        <v>651134</v>
       </c>
       <c r="X62">
-        <v>87594</v>
+        <v>445110</v>
       </c>
       <c r="Y62">
-        <v>87810</v>
+        <v>335650</v>
       </c>
       <c r="Z62">
-        <v>87317</v>
+        <v>235706</v>
       </c>
       <c r="AA62">
-        <v>87427</v>
+        <v>221729</v>
       </c>
       <c r="AB62">
-        <v>87141</v>
+        <v>190568</v>
       </c>
       <c r="AC62">
-        <v>86341</v>
+        <v>141714</v>
       </c>
       <c r="AE62" t="s">
         <v>14</v>
       </c>
       <c r="AF62">
-        <v>86370</v>
+        <v>1280670</v>
       </c>
       <c r="AG62">
-        <v>87509</v>
+        <v>656689</v>
       </c>
       <c r="AH62">
-        <v>87204</v>
+        <v>437435</v>
       </c>
       <c r="AI62">
-        <v>86897</v>
+        <v>323985</v>
       </c>
       <c r="AJ62">
-        <v>87233</v>
+        <v>251656</v>
       </c>
       <c r="AK62">
-        <v>86852</v>
+        <v>199019</v>
       </c>
       <c r="AL62">
-        <v>87499</v>
+        <v>167644</v>
       </c>
       <c r="AM62">
-        <v>87161</v>
+        <v>163807</v>
       </c>
     </row>
     <row r="63" spans="1:39">
@@ -10526,109 +9763,109 @@
         <v>15</v>
       </c>
       <c r="B63">
-        <v>78468</v>
+        <v>873678</v>
       </c>
       <c r="C63">
-        <v>80924</v>
+        <v>443791</v>
       </c>
       <c r="D63">
-        <v>77032</v>
+        <v>287517</v>
       </c>
       <c r="E63">
-        <v>82316</v>
+        <v>213171</v>
       </c>
       <c r="F63">
-        <v>82866</v>
+        <v>169548</v>
       </c>
       <c r="G63">
-        <v>82033</v>
+        <v>138431</v>
       </c>
       <c r="H63">
-        <v>84138</v>
+        <v>120790</v>
       </c>
       <c r="I63">
-        <v>75966</v>
+        <v>105809</v>
       </c>
       <c r="K63" t="s">
         <v>15</v>
       </c>
       <c r="L63">
-        <v>59973</v>
+        <v>1477402</v>
       </c>
       <c r="M63">
-        <v>73969</v>
+        <v>528860</v>
       </c>
       <c r="N63">
-        <v>64406</v>
+        <v>135038</v>
       </c>
       <c r="O63">
-        <v>62279</v>
+        <v>145839</v>
       </c>
       <c r="P63">
-        <v>77340</v>
+        <v>235155</v>
       </c>
       <c r="Q63">
-        <v>61615</v>
+        <v>154452</v>
       </c>
       <c r="R63">
-        <v>66668</v>
+        <v>90226</v>
       </c>
       <c r="S63">
-        <v>51723</v>
+        <v>35991</v>
       </c>
       <c r="U63" t="s">
         <v>15</v>
       </c>
       <c r="V63">
-        <v>89044</v>
+        <v>1680911</v>
       </c>
       <c r="W63">
-        <v>112755</v>
+        <v>792593</v>
       </c>
       <c r="X63">
-        <v>113221</v>
+        <v>506289</v>
       </c>
       <c r="Y63">
-        <v>114158</v>
+        <v>370064</v>
       </c>
       <c r="Z63">
-        <v>112896</v>
+        <v>284546</v>
       </c>
       <c r="AA63">
-        <v>114243</v>
+        <v>225984</v>
       </c>
       <c r="AB63">
-        <v>115829</v>
+        <v>159069</v>
       </c>
       <c r="AC63">
-        <v>112943</v>
+        <v>153741</v>
       </c>
       <c r="AE63" t="s">
         <v>15</v>
       </c>
       <c r="AF63">
-        <v>109122</v>
+        <v>1658985</v>
       </c>
       <c r="AG63">
-        <v>100898</v>
+        <v>780909</v>
       </c>
       <c r="AH63">
-        <v>112204</v>
+        <v>486963</v>
       </c>
       <c r="AI63">
-        <v>94047</v>
+        <v>362693</v>
       </c>
       <c r="AJ63">
-        <v>92625</v>
+        <v>287461</v>
       </c>
       <c r="AK63">
-        <v>94208</v>
+        <v>214017</v>
       </c>
       <c r="AL63">
-        <v>103463</v>
+        <v>198650</v>
       </c>
       <c r="AM63">
-        <v>113740</v>
+        <v>155709</v>
       </c>
     </row>
     <row r="64" spans="1:39">
@@ -10636,109 +9873,109 @@
         <v>16</v>
       </c>
       <c r="B64">
-        <v>83437</v>
+        <v>1013366</v>
       </c>
       <c r="C64">
-        <v>83374</v>
+        <v>493416</v>
       </c>
       <c r="D64">
-        <v>82644</v>
+        <v>316390</v>
       </c>
       <c r="E64">
-        <v>81890</v>
+        <v>227890</v>
       </c>
       <c r="F64">
-        <v>83382</v>
+        <v>183447</v>
       </c>
       <c r="G64">
-        <v>82922</v>
+        <v>151368</v>
       </c>
       <c r="H64">
-        <v>83060</v>
+        <v>129916</v>
       </c>
       <c r="I64">
-        <v>83705</v>
+        <v>114330</v>
       </c>
       <c r="K64" t="s">
         <v>16</v>
       </c>
       <c r="L64">
-        <v>69173</v>
+        <v>194610</v>
       </c>
       <c r="M64">
-        <v>68034</v>
+        <v>77004</v>
       </c>
       <c r="N64">
-        <v>60841</v>
+        <v>35954</v>
       </c>
       <c r="O64">
-        <v>68588</v>
+        <v>38425</v>
       </c>
       <c r="P64">
-        <v>68679</v>
+        <v>25111</v>
       </c>
       <c r="Q64">
-        <v>66559</v>
+        <v>50603</v>
       </c>
       <c r="R64">
-        <v>68932</v>
+        <v>43209</v>
       </c>
       <c r="S64">
-        <v>68809</v>
+        <v>15568</v>
       </c>
       <c r="U64" t="s">
         <v>16</v>
       </c>
       <c r="V64">
-        <v>101447</v>
+        <v>1766110</v>
       </c>
       <c r="W64">
-        <v>102457</v>
+        <v>807595</v>
       </c>
       <c r="X64">
-        <v>101626</v>
+        <v>485385</v>
       </c>
       <c r="Y64">
-        <v>102488</v>
+        <v>338797</v>
       </c>
       <c r="Z64">
-        <v>102042</v>
+        <v>276625</v>
       </c>
       <c r="AA64">
-        <v>102238</v>
+        <v>221715</v>
       </c>
       <c r="AB64">
-        <v>101394</v>
+        <v>182034</v>
       </c>
       <c r="AC64">
-        <v>101496</v>
+        <v>158496</v>
       </c>
       <c r="AE64" t="s">
         <v>16</v>
       </c>
       <c r="AF64">
-        <v>100335</v>
+        <v>1733442</v>
       </c>
       <c r="AG64">
-        <v>102446</v>
+        <v>795368</v>
       </c>
       <c r="AH64">
-        <v>101729</v>
+        <v>495761</v>
       </c>
       <c r="AI64">
-        <v>101960</v>
+        <v>356799</v>
       </c>
       <c r="AJ64">
-        <v>101811</v>
+        <v>256000</v>
       </c>
       <c r="AK64">
-        <v>101260</v>
+        <v>216859</v>
       </c>
       <c r="AL64">
-        <v>102097</v>
+        <v>185515</v>
       </c>
       <c r="AM64">
-        <v>101015</v>
+        <v>160322</v>
       </c>
     </row>
     <row r="65" spans="1:39">
@@ -10746,109 +9983,109 @@
         <v>17</v>
       </c>
       <c r="B65">
-        <v>86871</v>
+        <v>1077461</v>
       </c>
       <c r="C65">
-        <v>87444</v>
+        <v>535494</v>
       </c>
       <c r="D65">
-        <v>87234</v>
+        <v>348619</v>
       </c>
       <c r="E65">
-        <v>89427</v>
+        <v>245531</v>
       </c>
       <c r="F65">
-        <v>85681</v>
+        <v>197498</v>
       </c>
       <c r="G65">
-        <v>88254</v>
+        <v>155970</v>
       </c>
       <c r="H65">
-        <v>87496</v>
+        <v>138553</v>
       </c>
       <c r="I65">
-        <v>88889</v>
+        <v>118115</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
       </c>
       <c r="L65">
-        <v>63048</v>
+        <v>132911</v>
       </c>
       <c r="M65">
-        <v>63258</v>
+        <v>61955</v>
       </c>
       <c r="N65">
-        <v>63254</v>
+        <v>119189</v>
       </c>
       <c r="O65">
-        <v>63073</v>
+        <v>64402</v>
       </c>
       <c r="P65">
-        <v>63123</v>
+        <v>40900</v>
       </c>
       <c r="Q65">
-        <v>63038</v>
+        <v>47368</v>
       </c>
       <c r="R65">
-        <v>63094</v>
+        <v>27307</v>
       </c>
       <c r="S65">
-        <v>62986</v>
+        <v>16595</v>
       </c>
       <c r="U65" t="s">
         <v>17</v>
       </c>
       <c r="V65">
-        <v>94863</v>
+        <v>1733640</v>
       </c>
       <c r="W65">
-        <v>95024</v>
+        <v>748291</v>
       </c>
       <c r="X65">
-        <v>95791</v>
+        <v>445838</v>
       </c>
       <c r="Y65">
-        <v>96045</v>
+        <v>306652</v>
       </c>
       <c r="Z65">
-        <v>95350</v>
+        <v>230967</v>
       </c>
       <c r="AA65">
-        <v>95189</v>
+        <v>189784</v>
       </c>
       <c r="AB65">
-        <v>95761</v>
+        <v>157505</v>
       </c>
       <c r="AC65">
-        <v>95345</v>
+        <v>136059</v>
       </c>
       <c r="AE65" t="s">
         <v>17</v>
       </c>
       <c r="AF65">
-        <v>96164</v>
+        <v>1701304</v>
       </c>
       <c r="AG65">
-        <v>96415</v>
+        <v>740913</v>
       </c>
       <c r="AH65">
-        <v>96510</v>
+        <v>441650</v>
       </c>
       <c r="AI65">
-        <v>96234</v>
+        <v>299441</v>
       </c>
       <c r="AJ65">
-        <v>95838</v>
+        <v>229149</v>
       </c>
       <c r="AK65">
-        <v>96418</v>
+        <v>182145</v>
       </c>
       <c r="AL65">
-        <v>96236</v>
+        <v>153369</v>
       </c>
       <c r="AM65">
-        <v>95848</v>
+        <v>134874</v>
       </c>
     </row>
     <row r="66" spans="1:39">
@@ -10856,109 +10093,109 @@
         <v>18</v>
       </c>
       <c r="B66">
-        <v>76252</v>
+        <v>1066335</v>
       </c>
       <c r="C66">
-        <v>77940</v>
+        <v>528127</v>
       </c>
       <c r="D66">
-        <v>75874</v>
+        <v>341497</v>
       </c>
       <c r="E66">
-        <v>76025</v>
+        <v>250788</v>
       </c>
       <c r="F66">
-        <v>76158</v>
+        <v>192878</v>
       </c>
       <c r="G66">
-        <v>77174</v>
+        <v>158116</v>
       </c>
       <c r="H66">
-        <v>76622</v>
+        <v>137599</v>
       </c>
       <c r="I66">
-        <v>77022</v>
+        <v>115318</v>
       </c>
       <c r="K66" t="s">
         <v>18</v>
       </c>
       <c r="L66">
-        <v>55039</v>
+        <v>350358</v>
       </c>
       <c r="M66">
-        <v>55300</v>
+        <v>197264</v>
       </c>
       <c r="N66">
-        <v>55353</v>
+        <v>92625</v>
       </c>
       <c r="O66">
-        <v>55254</v>
+        <v>95750</v>
       </c>
       <c r="P66">
-        <v>55513</v>
+        <v>66667</v>
       </c>
       <c r="Q66">
-        <v>55300</v>
+        <v>38116</v>
       </c>
       <c r="R66">
-        <v>55268</v>
+        <v>43134</v>
       </c>
       <c r="S66">
-        <v>54761</v>
+        <v>36594</v>
       </c>
       <c r="U66" t="s">
         <v>18</v>
       </c>
       <c r="V66">
-        <v>82169</v>
+        <v>1672027</v>
       </c>
       <c r="W66">
-        <v>81923</v>
+        <v>699749</v>
       </c>
       <c r="X66">
-        <v>81788</v>
+        <v>426576</v>
       </c>
       <c r="Y66">
-        <v>81901</v>
+        <v>297692</v>
       </c>
       <c r="Z66">
-        <v>81746</v>
+        <v>228880</v>
       </c>
       <c r="AA66">
-        <v>80855</v>
+        <v>179782</v>
       </c>
       <c r="AB66">
-        <v>81572</v>
+        <v>153433</v>
       </c>
       <c r="AC66">
-        <v>81428</v>
+        <v>135206</v>
       </c>
       <c r="AE66" t="s">
         <v>18</v>
       </c>
       <c r="AF66">
-        <v>81547</v>
+        <v>1638192</v>
       </c>
       <c r="AG66">
-        <v>82173</v>
+        <v>701754</v>
       </c>
       <c r="AH66">
-        <v>81938</v>
+        <v>425566</v>
       </c>
       <c r="AI66">
-        <v>81945</v>
+        <v>288508</v>
       </c>
       <c r="AJ66">
-        <v>81967</v>
+        <v>213805</v>
       </c>
       <c r="AK66">
-        <v>81865</v>
+        <v>179101</v>
       </c>
       <c r="AL66">
-        <v>81579</v>
+        <v>154379</v>
       </c>
       <c r="AM66">
-        <v>81407</v>
+        <v>131910</v>
       </c>
     </row>
     <row r="67" spans="1:39">
@@ -10966,109 +10203,109 @@
         <v>19</v>
       </c>
       <c r="B67">
-        <v>71977</v>
+        <v>1062478</v>
       </c>
       <c r="C67">
-        <v>70866</v>
+        <v>504259</v>
       </c>
       <c r="D67">
-        <v>72501</v>
+        <v>337299</v>
       </c>
       <c r="E67">
-        <v>71940</v>
+        <v>250581</v>
       </c>
       <c r="F67">
-        <v>72910</v>
+        <v>191613</v>
       </c>
       <c r="G67">
-        <v>71759</v>
+        <v>160244</v>
       </c>
       <c r="H67">
-        <v>72147</v>
+        <v>130926</v>
       </c>
       <c r="I67">
-        <v>72493</v>
+        <v>118840</v>
       </c>
       <c r="K67" t="s">
         <v>19</v>
       </c>
       <c r="L67">
-        <v>55907</v>
+        <v>332401</v>
       </c>
       <c r="M67">
-        <v>55666</v>
+        <v>195857</v>
       </c>
       <c r="N67">
-        <v>55759</v>
+        <v>87038</v>
       </c>
       <c r="O67">
-        <v>54260</v>
+        <v>64157</v>
       </c>
       <c r="P67">
-        <v>55286</v>
+        <v>54242</v>
       </c>
       <c r="Q67">
-        <v>55179</v>
+        <v>58424</v>
       </c>
       <c r="R67">
-        <v>55352</v>
+        <v>38474</v>
       </c>
       <c r="S67">
-        <v>55362</v>
+        <v>37733</v>
       </c>
       <c r="U67" t="s">
         <v>19</v>
       </c>
       <c r="V67">
-        <v>80914</v>
+        <v>1620083</v>
       </c>
       <c r="W67">
-        <v>76546</v>
+        <v>690979</v>
       </c>
       <c r="X67">
-        <v>79837</v>
+        <v>414241</v>
       </c>
       <c r="Y67">
-        <v>81304</v>
+        <v>291869</v>
       </c>
       <c r="Z67">
-        <v>80305</v>
+        <v>215476</v>
       </c>
       <c r="AA67">
-        <v>80403</v>
+        <v>178984</v>
       </c>
       <c r="AB67">
-        <v>79953</v>
+        <v>153737</v>
       </c>
       <c r="AC67">
-        <v>80044</v>
+        <v>131952</v>
       </c>
       <c r="AE67" t="s">
         <v>19</v>
       </c>
       <c r="AF67">
-        <v>81341</v>
+        <v>1616108</v>
       </c>
       <c r="AG67">
-        <v>81183</v>
+        <v>691817</v>
       </c>
       <c r="AH67">
-        <v>81335</v>
+        <v>417782</v>
       </c>
       <c r="AI67">
-        <v>81370</v>
+        <v>288313</v>
       </c>
       <c r="AJ67">
-        <v>79920</v>
+        <v>222022</v>
       </c>
       <c r="AK67">
-        <v>80917</v>
+        <v>176361</v>
       </c>
       <c r="AL67">
-        <v>80867</v>
+        <v>150580</v>
       </c>
       <c r="AM67">
-        <v>80792</v>
+        <v>132539</v>
       </c>
     </row>
     <row r="68" spans="1:39">
@@ -11076,109 +10313,109 @@
         <v>20</v>
       </c>
       <c r="B68">
-        <v>70149</v>
+        <v>1044140</v>
       </c>
       <c r="C68">
-        <v>69809</v>
+        <v>508833</v>
       </c>
       <c r="D68">
-        <v>69293</v>
+        <v>336061</v>
       </c>
       <c r="E68">
-        <v>70793</v>
+        <v>246945</v>
       </c>
       <c r="F68">
-        <v>70349</v>
+        <v>186329</v>
       </c>
       <c r="G68">
-        <v>70682</v>
+        <v>157049</v>
       </c>
       <c r="H68">
-        <v>68998</v>
+        <v>136279</v>
       </c>
       <c r="I68">
-        <v>69410</v>
+        <v>114955</v>
       </c>
       <c r="K68" t="s">
         <v>20</v>
       </c>
       <c r="L68">
-        <v>55676</v>
+        <v>333198</v>
       </c>
       <c r="M68">
-        <v>56561</v>
+        <v>200036</v>
       </c>
       <c r="N68">
-        <v>56260</v>
+        <v>129953</v>
       </c>
       <c r="O68">
-        <v>56486</v>
+        <v>95895</v>
       </c>
       <c r="P68">
-        <v>55704</v>
+        <v>58470</v>
       </c>
       <c r="Q68">
-        <v>56395</v>
+        <v>48473</v>
       </c>
       <c r="R68">
-        <v>56323</v>
+        <v>51701</v>
       </c>
       <c r="S68">
-        <v>56190</v>
+        <v>39208</v>
       </c>
       <c r="U68" t="s">
         <v>20</v>
       </c>
       <c r="V68">
-        <v>80592</v>
+        <v>1597822</v>
       </c>
       <c r="W68">
-        <v>81554</v>
+        <v>675096</v>
       </c>
       <c r="X68">
-        <v>81143</v>
+        <v>414863</v>
       </c>
       <c r="Y68">
-        <v>80894</v>
+        <v>290919</v>
       </c>
       <c r="Z68">
-        <v>80464</v>
+        <v>223037</v>
       </c>
       <c r="AA68">
-        <v>75865</v>
+        <v>177217</v>
       </c>
       <c r="AB68">
-        <v>79965</v>
+        <v>151001</v>
       </c>
       <c r="AC68">
-        <v>79507</v>
+        <v>132833</v>
       </c>
       <c r="AE68" t="s">
         <v>20</v>
       </c>
       <c r="AF68">
-        <v>80628</v>
+        <v>1551642</v>
       </c>
       <c r="AG68">
-        <v>81399</v>
+        <v>665967</v>
       </c>
       <c r="AH68">
-        <v>80443</v>
+        <v>407890</v>
       </c>
       <c r="AI68">
-        <v>80298</v>
+        <v>287003</v>
       </c>
       <c r="AJ68">
-        <v>80788</v>
+        <v>212915</v>
       </c>
       <c r="AK68">
-        <v>81137</v>
+        <v>175691</v>
       </c>
       <c r="AL68">
-        <v>80965</v>
+        <v>151625</v>
       </c>
       <c r="AM68">
-        <v>79777</v>
+        <v>129728</v>
       </c>
     </row>
     <row r="69" spans="1:39">
@@ -11186,109 +10423,1364 @@
         <v>21</v>
       </c>
       <c r="B69">
-        <v>69008</v>
+        <v>1039428</v>
       </c>
       <c r="C69">
-        <v>68578</v>
+        <v>511027</v>
       </c>
       <c r="D69">
-        <v>64779</v>
+        <v>335178</v>
       </c>
       <c r="E69">
-        <v>66854</v>
+        <v>247347</v>
       </c>
       <c r="F69">
-        <v>67189</v>
+        <v>189047</v>
       </c>
       <c r="G69">
-        <v>67828</v>
+        <v>153060</v>
       </c>
       <c r="H69">
-        <v>69632</v>
+        <v>132999</v>
       </c>
       <c r="I69">
-        <v>68405</v>
+        <v>118271</v>
       </c>
       <c r="K69" t="s">
         <v>21</v>
       </c>
       <c r="L69">
-        <v>56381</v>
+        <v>427728</v>
       </c>
       <c r="M69">
-        <v>56457</v>
+        <v>193048</v>
       </c>
       <c r="N69">
-        <v>57552</v>
+        <v>127801</v>
       </c>
       <c r="O69">
-        <v>57459</v>
+        <v>94760</v>
       </c>
       <c r="P69">
-        <v>57183</v>
+        <v>74075</v>
       </c>
       <c r="Q69">
-        <v>57317</v>
+        <v>60952</v>
       </c>
       <c r="R69">
-        <v>56779</v>
+        <v>42841</v>
       </c>
       <c r="S69">
-        <v>56886</v>
+        <v>36861</v>
       </c>
       <c r="U69" t="s">
         <v>21</v>
       </c>
       <c r="V69">
-        <v>79782</v>
+        <v>1582453</v>
       </c>
       <c r="W69">
-        <v>81153</v>
+        <v>661316</v>
       </c>
       <c r="X69">
-        <v>81920</v>
+        <v>406077</v>
       </c>
       <c r="Y69">
-        <v>81259</v>
+        <v>285991</v>
       </c>
       <c r="Z69">
-        <v>79825</v>
+        <v>215080</v>
       </c>
       <c r="AA69">
-        <v>79079</v>
+        <v>177074</v>
       </c>
       <c r="AB69">
-        <v>80158</v>
+        <v>153112</v>
       </c>
       <c r="AC69">
-        <v>79793</v>
+        <v>130403</v>
       </c>
       <c r="AE69" t="s">
         <v>21</v>
       </c>
       <c r="AF69">
+        <v>1541039</v>
+      </c>
+      <c r="AG69">
+        <v>647714</v>
+      </c>
+      <c r="AH69">
+        <v>401734</v>
+      </c>
+      <c r="AI69">
+        <v>279177</v>
+      </c>
+      <c r="AJ69">
+        <v>215794</v>
+      </c>
+      <c r="AK69">
+        <v>172387</v>
+      </c>
+      <c r="AL69">
+        <v>146291</v>
+      </c>
+      <c r="AM69">
+        <v>129103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K71" t="s">
+        <v>5</v>
+      </c>
+      <c r="U71" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72" t="s">
+        <v>7</v>
+      </c>
+      <c r="N72" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" t="s">
+        <v>9</v>
+      </c>
+      <c r="P72" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>11</v>
+      </c>
+      <c r="R72" t="s">
+        <v>12</v>
+      </c>
+      <c r="S72" t="s">
+        <v>13</v>
+      </c>
+      <c r="V72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W72" t="s">
+        <v>7</v>
+      </c>
+      <c r="X72" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>62262</v>
+      </c>
+      <c r="C73">
+        <v>63195</v>
+      </c>
+      <c r="D73">
+        <v>63276</v>
+      </c>
+      <c r="E73">
+        <v>62959</v>
+      </c>
+      <c r="F73">
+        <v>63238</v>
+      </c>
+      <c r="G73">
+        <v>62377</v>
+      </c>
+      <c r="H73">
+        <v>63595</v>
+      </c>
+      <c r="I73">
+        <v>63185</v>
+      </c>
+      <c r="K73" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73">
+        <v>73684</v>
+      </c>
+      <c r="M73">
+        <v>73841</v>
+      </c>
+      <c r="N73">
+        <v>73987</v>
+      </c>
+      <c r="O73">
+        <v>73157</v>
+      </c>
+      <c r="P73">
+        <v>74479</v>
+      </c>
+      <c r="Q73">
+        <v>74293</v>
+      </c>
+      <c r="R73">
+        <v>73735</v>
+      </c>
+      <c r="S73">
+        <v>74128</v>
+      </c>
+      <c r="U73" t="s">
+        <v>14</v>
+      </c>
+      <c r="V73">
+        <v>87128</v>
+      </c>
+      <c r="W73">
+        <v>87425</v>
+      </c>
+      <c r="X73">
+        <v>87594</v>
+      </c>
+      <c r="Y73">
+        <v>87810</v>
+      </c>
+      <c r="Z73">
+        <v>87317</v>
+      </c>
+      <c r="AA73">
+        <v>87427</v>
+      </c>
+      <c r="AB73">
+        <v>87141</v>
+      </c>
+      <c r="AC73">
+        <v>86341</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF73">
+        <v>86370</v>
+      </c>
+      <c r="AG73">
+        <v>87509</v>
+      </c>
+      <c r="AH73">
+        <v>87204</v>
+      </c>
+      <c r="AI73">
+        <v>86897</v>
+      </c>
+      <c r="AJ73">
+        <v>87233</v>
+      </c>
+      <c r="AK73">
+        <v>86852</v>
+      </c>
+      <c r="AL73">
+        <v>87499</v>
+      </c>
+      <c r="AM73">
+        <v>87161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74">
+        <v>78468</v>
+      </c>
+      <c r="C74">
+        <v>80924</v>
+      </c>
+      <c r="D74">
+        <v>77032</v>
+      </c>
+      <c r="E74">
+        <v>82316</v>
+      </c>
+      <c r="F74">
+        <v>82866</v>
+      </c>
+      <c r="G74">
+        <v>82033</v>
+      </c>
+      <c r="H74">
+        <v>84138</v>
+      </c>
+      <c r="I74">
+        <v>75966</v>
+      </c>
+      <c r="K74" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74">
+        <v>59973</v>
+      </c>
+      <c r="M74">
+        <v>73969</v>
+      </c>
+      <c r="N74">
+        <v>64406</v>
+      </c>
+      <c r="O74">
+        <v>62279</v>
+      </c>
+      <c r="P74">
+        <v>77340</v>
+      </c>
+      <c r="Q74">
+        <v>61615</v>
+      </c>
+      <c r="R74">
+        <v>66668</v>
+      </c>
+      <c r="S74">
+        <v>51723</v>
+      </c>
+      <c r="U74" t="s">
+        <v>15</v>
+      </c>
+      <c r="V74">
+        <v>89044</v>
+      </c>
+      <c r="W74">
+        <v>112755</v>
+      </c>
+      <c r="X74">
+        <v>113221</v>
+      </c>
+      <c r="Y74">
+        <v>114158</v>
+      </c>
+      <c r="Z74">
+        <v>112896</v>
+      </c>
+      <c r="AA74">
+        <v>114243</v>
+      </c>
+      <c r="AB74">
+        <v>115829</v>
+      </c>
+      <c r="AC74">
+        <v>112943</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF74">
+        <v>109122</v>
+      </c>
+      <c r="AG74">
+        <v>100898</v>
+      </c>
+      <c r="AH74">
+        <v>112204</v>
+      </c>
+      <c r="AI74">
+        <v>94047</v>
+      </c>
+      <c r="AJ74">
+        <v>92625</v>
+      </c>
+      <c r="AK74">
+        <v>94208</v>
+      </c>
+      <c r="AL74">
+        <v>103463</v>
+      </c>
+      <c r="AM74">
+        <v>113740</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>83437</v>
+      </c>
+      <c r="C75">
+        <v>83374</v>
+      </c>
+      <c r="D75">
+        <v>82644</v>
+      </c>
+      <c r="E75">
+        <v>81890</v>
+      </c>
+      <c r="F75">
+        <v>83382</v>
+      </c>
+      <c r="G75">
+        <v>82922</v>
+      </c>
+      <c r="H75">
+        <v>83060</v>
+      </c>
+      <c r="I75">
+        <v>83705</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75">
+        <v>69173</v>
+      </c>
+      <c r="M75">
+        <v>68034</v>
+      </c>
+      <c r="N75">
+        <v>60841</v>
+      </c>
+      <c r="O75">
+        <v>68588</v>
+      </c>
+      <c r="P75">
+        <v>68679</v>
+      </c>
+      <c r="Q75">
+        <v>66559</v>
+      </c>
+      <c r="R75">
+        <v>68932</v>
+      </c>
+      <c r="S75">
+        <v>68809</v>
+      </c>
+      <c r="U75" t="s">
+        <v>16</v>
+      </c>
+      <c r="V75">
+        <v>101447</v>
+      </c>
+      <c r="W75">
+        <v>102457</v>
+      </c>
+      <c r="X75">
+        <v>101626</v>
+      </c>
+      <c r="Y75">
+        <v>102488</v>
+      </c>
+      <c r="Z75">
+        <v>102042</v>
+      </c>
+      <c r="AA75">
+        <v>102238</v>
+      </c>
+      <c r="AB75">
+        <v>101394</v>
+      </c>
+      <c r="AC75">
+        <v>101496</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF75">
+        <v>100335</v>
+      </c>
+      <c r="AG75">
+        <v>102446</v>
+      </c>
+      <c r="AH75">
+        <v>101729</v>
+      </c>
+      <c r="AI75">
+        <v>101960</v>
+      </c>
+      <c r="AJ75">
+        <v>101811</v>
+      </c>
+      <c r="AK75">
+        <v>101260</v>
+      </c>
+      <c r="AL75">
+        <v>102097</v>
+      </c>
+      <c r="AM75">
+        <v>101015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>86871</v>
+      </c>
+      <c r="C76">
+        <v>87444</v>
+      </c>
+      <c r="D76">
+        <v>87234</v>
+      </c>
+      <c r="E76">
+        <v>89427</v>
+      </c>
+      <c r="F76">
+        <v>85681</v>
+      </c>
+      <c r="G76">
+        <v>88254</v>
+      </c>
+      <c r="H76">
+        <v>87496</v>
+      </c>
+      <c r="I76">
+        <v>88889</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76">
+        <v>63048</v>
+      </c>
+      <c r="M76">
+        <v>63258</v>
+      </c>
+      <c r="N76">
+        <v>63254</v>
+      </c>
+      <c r="O76">
+        <v>63073</v>
+      </c>
+      <c r="P76">
+        <v>63123</v>
+      </c>
+      <c r="Q76">
+        <v>63038</v>
+      </c>
+      <c r="R76">
+        <v>63094</v>
+      </c>
+      <c r="S76">
+        <v>62986</v>
+      </c>
+      <c r="U76" t="s">
+        <v>17</v>
+      </c>
+      <c r="V76">
+        <v>94863</v>
+      </c>
+      <c r="W76">
+        <v>95024</v>
+      </c>
+      <c r="X76">
+        <v>95791</v>
+      </c>
+      <c r="Y76">
+        <v>96045</v>
+      </c>
+      <c r="Z76">
+        <v>95350</v>
+      </c>
+      <c r="AA76">
+        <v>95189</v>
+      </c>
+      <c r="AB76">
+        <v>95761</v>
+      </c>
+      <c r="AC76">
+        <v>95345</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF76">
+        <v>96164</v>
+      </c>
+      <c r="AG76">
+        <v>96415</v>
+      </c>
+      <c r="AH76">
+        <v>96510</v>
+      </c>
+      <c r="AI76">
+        <v>96234</v>
+      </c>
+      <c r="AJ76">
+        <v>95838</v>
+      </c>
+      <c r="AK76">
+        <v>96418</v>
+      </c>
+      <c r="AL76">
+        <v>96236</v>
+      </c>
+      <c r="AM76">
+        <v>95848</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>76252</v>
+      </c>
+      <c r="C77">
+        <v>77940</v>
+      </c>
+      <c r="D77">
+        <v>75874</v>
+      </c>
+      <c r="E77">
+        <v>76025</v>
+      </c>
+      <c r="F77">
+        <v>76158</v>
+      </c>
+      <c r="G77">
+        <v>77174</v>
+      </c>
+      <c r="H77">
+        <v>76622</v>
+      </c>
+      <c r="I77">
+        <v>77022</v>
+      </c>
+      <c r="K77" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77">
+        <v>55039</v>
+      </c>
+      <c r="M77">
+        <v>55300</v>
+      </c>
+      <c r="N77">
+        <v>55353</v>
+      </c>
+      <c r="O77">
+        <v>55254</v>
+      </c>
+      <c r="P77">
+        <v>55513</v>
+      </c>
+      <c r="Q77">
+        <v>55300</v>
+      </c>
+      <c r="R77">
+        <v>55268</v>
+      </c>
+      <c r="S77">
+        <v>54761</v>
+      </c>
+      <c r="U77" t="s">
+        <v>18</v>
+      </c>
+      <c r="V77">
+        <v>82169</v>
+      </c>
+      <c r="W77">
+        <v>81923</v>
+      </c>
+      <c r="X77">
+        <v>81788</v>
+      </c>
+      <c r="Y77">
+        <v>81901</v>
+      </c>
+      <c r="Z77">
+        <v>81746</v>
+      </c>
+      <c r="AA77">
+        <v>80855</v>
+      </c>
+      <c r="AB77">
+        <v>81572</v>
+      </c>
+      <c r="AC77">
+        <v>81428</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF77">
+        <v>81547</v>
+      </c>
+      <c r="AG77">
+        <v>82173</v>
+      </c>
+      <c r="AH77">
+        <v>81938</v>
+      </c>
+      <c r="AI77">
+        <v>81945</v>
+      </c>
+      <c r="AJ77">
+        <v>81967</v>
+      </c>
+      <c r="AK77">
+        <v>81865</v>
+      </c>
+      <c r="AL77">
+        <v>81579</v>
+      </c>
+      <c r="AM77">
+        <v>81407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>71977</v>
+      </c>
+      <c r="C78">
+        <v>70866</v>
+      </c>
+      <c r="D78">
+        <v>72501</v>
+      </c>
+      <c r="E78">
+        <v>71940</v>
+      </c>
+      <c r="F78">
+        <v>72910</v>
+      </c>
+      <c r="G78">
+        <v>71759</v>
+      </c>
+      <c r="H78">
+        <v>72147</v>
+      </c>
+      <c r="I78">
+        <v>72493</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78">
+        <v>55907</v>
+      </c>
+      <c r="M78">
+        <v>55666</v>
+      </c>
+      <c r="N78">
+        <v>55759</v>
+      </c>
+      <c r="O78">
+        <v>54260</v>
+      </c>
+      <c r="P78">
+        <v>55286</v>
+      </c>
+      <c r="Q78">
+        <v>55179</v>
+      </c>
+      <c r="R78">
+        <v>55352</v>
+      </c>
+      <c r="S78">
+        <v>55362</v>
+      </c>
+      <c r="U78" t="s">
+        <v>19</v>
+      </c>
+      <c r="V78">
+        <v>80914</v>
+      </c>
+      <c r="W78">
+        <v>76546</v>
+      </c>
+      <c r="X78">
+        <v>79837</v>
+      </c>
+      <c r="Y78">
+        <v>81304</v>
+      </c>
+      <c r="Z78">
+        <v>80305</v>
+      </c>
+      <c r="AA78">
+        <v>80403</v>
+      </c>
+      <c r="AB78">
+        <v>79953</v>
+      </c>
+      <c r="AC78">
+        <v>80044</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF78">
+        <v>81341</v>
+      </c>
+      <c r="AG78">
+        <v>81183</v>
+      </c>
+      <c r="AH78">
+        <v>81335</v>
+      </c>
+      <c r="AI78">
+        <v>81370</v>
+      </c>
+      <c r="AJ78">
+        <v>79920</v>
+      </c>
+      <c r="AK78">
+        <v>80917</v>
+      </c>
+      <c r="AL78">
+        <v>80867</v>
+      </c>
+      <c r="AM78">
+        <v>80792</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>70149</v>
+      </c>
+      <c r="C79">
+        <v>69809</v>
+      </c>
+      <c r="D79">
+        <v>69293</v>
+      </c>
+      <c r="E79">
+        <v>70793</v>
+      </c>
+      <c r="F79">
+        <v>70349</v>
+      </c>
+      <c r="G79">
+        <v>70682</v>
+      </c>
+      <c r="H79">
+        <v>68998</v>
+      </c>
+      <c r="I79">
+        <v>69410</v>
+      </c>
+      <c r="K79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79">
+        <v>55676</v>
+      </c>
+      <c r="M79">
+        <v>56561</v>
+      </c>
+      <c r="N79">
+        <v>56260</v>
+      </c>
+      <c r="O79">
+        <v>56486</v>
+      </c>
+      <c r="P79">
+        <v>55704</v>
+      </c>
+      <c r="Q79">
+        <v>56395</v>
+      </c>
+      <c r="R79">
+        <v>56323</v>
+      </c>
+      <c r="S79">
+        <v>56190</v>
+      </c>
+      <c r="U79" t="s">
+        <v>20</v>
+      </c>
+      <c r="V79">
+        <v>80592</v>
+      </c>
+      <c r="W79">
+        <v>81554</v>
+      </c>
+      <c r="X79">
+        <v>81143</v>
+      </c>
+      <c r="Y79">
+        <v>80894</v>
+      </c>
+      <c r="Z79">
+        <v>80464</v>
+      </c>
+      <c r="AA79">
+        <v>75865</v>
+      </c>
+      <c r="AB79">
+        <v>79965</v>
+      </c>
+      <c r="AC79">
+        <v>79507</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF79">
+        <v>80628</v>
+      </c>
+      <c r="AG79">
+        <v>81399</v>
+      </c>
+      <c r="AH79">
+        <v>80443</v>
+      </c>
+      <c r="AI79">
+        <v>80298</v>
+      </c>
+      <c r="AJ79">
+        <v>80788</v>
+      </c>
+      <c r="AK79">
+        <v>81137</v>
+      </c>
+      <c r="AL79">
+        <v>80965</v>
+      </c>
+      <c r="AM79">
+        <v>79777</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80">
+        <v>69008</v>
+      </c>
+      <c r="C80">
+        <v>68578</v>
+      </c>
+      <c r="D80">
+        <v>64779</v>
+      </c>
+      <c r="E80">
+        <v>66854</v>
+      </c>
+      <c r="F80">
+        <v>67189</v>
+      </c>
+      <c r="G80">
+        <v>67828</v>
+      </c>
+      <c r="H80">
+        <v>69632</v>
+      </c>
+      <c r="I80">
+        <v>68405</v>
+      </c>
+      <c r="K80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L80">
+        <v>56381</v>
+      </c>
+      <c r="M80">
+        <v>56457</v>
+      </c>
+      <c r="N80">
+        <v>57552</v>
+      </c>
+      <c r="O80">
+        <v>57459</v>
+      </c>
+      <c r="P80">
+        <v>57183</v>
+      </c>
+      <c r="Q80">
+        <v>57317</v>
+      </c>
+      <c r="R80">
+        <v>56779</v>
+      </c>
+      <c r="S80">
+        <v>56886</v>
+      </c>
+      <c r="U80" t="s">
+        <v>21</v>
+      </c>
+      <c r="V80">
+        <v>79782</v>
+      </c>
+      <c r="W80">
+        <v>81153</v>
+      </c>
+      <c r="X80">
+        <v>81920</v>
+      </c>
+      <c r="Y80">
+        <v>81259</v>
+      </c>
+      <c r="Z80">
+        <v>79825</v>
+      </c>
+      <c r="AA80">
+        <v>79079</v>
+      </c>
+      <c r="AB80">
+        <v>80158</v>
+      </c>
+      <c r="AC80">
+        <v>79793</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF80">
         <v>80423</v>
       </c>
-      <c r="AG69">
+      <c r="AG80">
         <v>81375</v>
       </c>
-      <c r="AH69">
+      <c r="AH80">
         <v>81602</v>
       </c>
-      <c r="AI69">
+      <c r="AI80">
         <v>80768</v>
       </c>
-      <c r="AJ69">
+      <c r="AJ80">
         <v>81155</v>
       </c>
-      <c r="AK69">
+      <c r="AK80">
         <v>79876</v>
       </c>
-      <c r="AL69">
+      <c r="AL80">
         <v>80585</v>
       </c>
-      <c r="AM69">
+      <c r="AM80">
         <v>79766</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>10863530</v>
+      </c>
+      <c r="C84">
+        <v>9369366</v>
+      </c>
+      <c r="D84">
+        <v>7489474</v>
+      </c>
+      <c r="E84">
+        <v>6377522</v>
+      </c>
+      <c r="F84">
+        <v>5225148</v>
+      </c>
+      <c r="G84">
+        <v>4557502</v>
+      </c>
+      <c r="H84">
+        <v>3900521</v>
+      </c>
+      <c r="I84">
+        <v>2710251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>17061740</v>
+      </c>
+      <c r="C85">
+        <v>14419782</v>
+      </c>
+      <c r="D85">
+        <v>11996413</v>
+      </c>
+      <c r="E85">
+        <v>10032901</v>
+      </c>
+      <c r="F85">
+        <v>8532551</v>
+      </c>
+      <c r="G85">
+        <v>7267296</v>
+      </c>
+      <c r="H85">
+        <v>6188444</v>
+      </c>
+      <c r="I85">
+        <v>4545191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86">
+        <v>21261238</v>
+      </c>
+      <c r="C86">
+        <v>17677838</v>
+      </c>
+      <c r="D86">
+        <v>14627942</v>
+      </c>
+      <c r="E86">
+        <v>12358621</v>
+      </c>
+      <c r="F86">
+        <v>10452108</v>
+      </c>
+      <c r="G86">
+        <v>8878937</v>
+      </c>
+      <c r="H86">
+        <v>7668981</v>
+      </c>
+      <c r="I86">
+        <v>5870409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>23160368</v>
+      </c>
+      <c r="C87">
+        <v>19281835</v>
+      </c>
+      <c r="D87">
+        <v>15828498</v>
+      </c>
+      <c r="E87">
+        <v>13340026</v>
+      </c>
+      <c r="F87">
+        <v>11223470</v>
+      </c>
+      <c r="G87">
+        <v>9553637</v>
+      </c>
+      <c r="H87">
+        <v>8334436</v>
+      </c>
+      <c r="I87">
+        <v>6749962</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88">
+        <v>23152978</v>
+      </c>
+      <c r="C88">
+        <v>18896611</v>
+      </c>
+      <c r="D88">
+        <v>15876953</v>
+      </c>
+      <c r="E88">
+        <v>13331085</v>
+      </c>
+      <c r="F88">
+        <v>11228350</v>
+      </c>
+      <c r="G88">
+        <v>9638724</v>
+      </c>
+      <c r="H88">
+        <v>8336666</v>
+      </c>
+      <c r="I88">
+        <v>6749031</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <v>23190335</v>
+      </c>
+      <c r="C89">
+        <v>19209119</v>
+      </c>
+      <c r="D89">
+        <v>15998242</v>
+      </c>
+      <c r="E89">
+        <v>13344486</v>
+      </c>
+      <c r="F89">
+        <v>11228553</v>
+      </c>
+      <c r="G89">
+        <v>9602251</v>
+      </c>
+      <c r="H89">
+        <v>8301431</v>
+      </c>
+      <c r="I89">
+        <v>6757688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90">
+        <v>22931035</v>
+      </c>
+      <c r="C90">
+        <v>19179884</v>
+      </c>
+      <c r="D90">
+        <v>15811084</v>
+      </c>
+      <c r="E90">
+        <v>13376714</v>
+      </c>
+      <c r="F90">
+        <v>11217206</v>
+      </c>
+      <c r="G90">
+        <v>9637157</v>
+      </c>
+      <c r="H90">
+        <v>8251208</v>
+      </c>
+      <c r="I90">
+        <v>6770029</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91">
+        <v>23163497</v>
+      </c>
+      <c r="C91">
+        <v>18290801</v>
+      </c>
+      <c r="D91">
+        <v>15954990</v>
+      </c>
+      <c r="E91">
+        <v>13271451</v>
+      </c>
+      <c r="F91">
+        <v>11243199</v>
+      </c>
+      <c r="G91">
+        <v>9623359</v>
+      </c>
+      <c r="H91">
+        <v>8276757</v>
+      </c>
+      <c r="I91">
+        <v>6717221</v>
       </c>
     </row>
   </sheetData>
@@ -11299,6 +11791,56 @@
     <mergeCell ref="AE4:AM4"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:I25">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:I47">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I14">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11307,6 +11849,40 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I28 B37:I47">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:I80">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:I58">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11318,15 +11894,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:I36">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="B62:I69">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11338,59 +11906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I14">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I36">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:I69">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:I47">
+  <conditionalFormatting sqref="B73:I80">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11402,7 +11918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:I58">
+  <conditionalFormatting sqref="L7:S14">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11414,7 +11930,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:I69">
+  <conditionalFormatting sqref="L18:S25">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11426,7 +11942,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:S14">
+  <conditionalFormatting sqref="L29:S47">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11438,7 +11954,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:S25">
+  <conditionalFormatting sqref="L51:S58">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11450,7 +11966,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:S36">
+  <conditionalFormatting sqref="L62:S69">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11462,7 +11978,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:S47">
+  <conditionalFormatting sqref="L73:S80">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11474,7 +11990,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51:S58">
+  <conditionalFormatting sqref="V73:AC80">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11486,7 +12002,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L62:S69">
+  <conditionalFormatting sqref="V62:AC69">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11498,7 +12014,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V62:AC69">
+  <conditionalFormatting sqref="V51:AC58">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11510,7 +12026,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V51:AC58">
+  <conditionalFormatting sqref="V29:AC47">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11522,7 +12038,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V40:AC47">
+  <conditionalFormatting sqref="V18:AC25">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11534,7 +12050,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29:AC36">
+  <conditionalFormatting sqref="V7:AC14">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11546,7 +12062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:AC25">
+  <conditionalFormatting sqref="AF7:AM14">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11558,7 +12074,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7:AC14">
+  <conditionalFormatting sqref="AF18:AM25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11570,7 +12086,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF7:AM14">
+  <conditionalFormatting sqref="AF29:AM47">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11582,7 +12098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF18:AM25">
+  <conditionalFormatting sqref="AF51:AM58">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11594,7 +12110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF29:AM36">
+  <conditionalFormatting sqref="AF62:AM69">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11606,7 +12122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF40:AM47">
+  <conditionalFormatting sqref="AF73:AM80">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11618,27 +12134,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF51:AM58">
+  <conditionalFormatting sqref="B29:I36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF62:AM69">
+  <conditionalFormatting sqref="B84:I91">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/graphs/benchmark_locking 2x i5 M540 @ 2.53Ghz Win10 4.125Gb bandwidth.xlsx
+++ b/graphs/benchmark_locking 2x i5 M540 @ 2.53Ghz Win10 4.125Gb bandwidth.xlsx
@@ -379,11 +379,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="48079616"/>
-        <c:axId val="48081920"/>
+        <c:axId val="105871616"/>
+        <c:axId val="105886464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48079616"/>
+        <c:axId val="105871616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,14 +407,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48081920"/>
+        <c:crossAx val="105886464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48081920"/>
+        <c:axId val="105886464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +440,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48079616"/>
+        <c:crossAx val="105871616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -463,7 +463,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -497,6 +497,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -631,12 +632,55 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>memory map</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$41:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7489908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6526982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5453116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4565350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3886815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3296295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2907728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2301558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51135616"/>
-        <c:axId val="51137536"/>
+        <c:axId val="134691456"/>
+        <c:axId val="134701824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51135616"/>
+        <c:axId val="134691456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,16 +701,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51137536"/>
+        <c:crossAx val="134701824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51137536"/>
+        <c:axId val="134701824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -690,16 +735,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51135616"/>
+        <c:crossAx val="134691456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -715,7 +762,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -749,6 +796,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -884,11 +932,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51176192"/>
-        <c:axId val="51178112"/>
+        <c:axId val="134732032"/>
+        <c:axId val="134734208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51176192"/>
+        <c:axId val="134732032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,16 +957,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51178112"/>
+        <c:crossAx val="134734208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51178112"/>
+        <c:axId val="134734208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -942,16 +991,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51176192"/>
+        <c:crossAx val="134732032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -967,7 +1018,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1001,6 +1052,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1136,11 +1188,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51216768"/>
-        <c:axId val="51218688"/>
+        <c:axId val="134780800"/>
+        <c:axId val="134787072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51216768"/>
+        <c:axId val="134780800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,16 +1213,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51218688"/>
+        <c:crossAx val="134787072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51218688"/>
+        <c:axId val="134787072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1194,16 +1247,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51216768"/>
+        <c:crossAx val="134780800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1219,7 +1274,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1364,11 +1419,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51325952"/>
-        <c:axId val="51336320"/>
+        <c:axId val="134886144"/>
+        <c:axId val="134888064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51325952"/>
+        <c:axId val="134886144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,14 +1447,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51336320"/>
+        <c:crossAx val="134888064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51336320"/>
+        <c:axId val="134888064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,7 +1485,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51325952"/>
+        <c:crossAx val="134886144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1453,7 +1508,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1598,11 +1653,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51357568"/>
-        <c:axId val="51376128"/>
+        <c:axId val="134921600"/>
+        <c:axId val="134817280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51357568"/>
+        <c:axId val="134921600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,14 +1681,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51376128"/>
+        <c:crossAx val="134817280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51376128"/>
+        <c:axId val="134817280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1719,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51357568"/>
+        <c:crossAx val="134921600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1687,7 +1742,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1721,6 +1776,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1856,11 +1912,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51291648"/>
-        <c:axId val="51293568"/>
+        <c:axId val="134839296"/>
+        <c:axId val="134845568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51291648"/>
+        <c:axId val="134839296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,16 +1937,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51293568"/>
+        <c:crossAx val="134845568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51293568"/>
+        <c:axId val="134845568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1914,16 +1971,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51291648"/>
+        <c:crossAx val="134839296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1939,7 +1998,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1973,6 +2032,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2108,11 +2168,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51381376"/>
-        <c:axId val="51383296"/>
+        <c:axId val="134937216"/>
+        <c:axId val="134951680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51381376"/>
+        <c:axId val="134937216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,16 +2193,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51383296"/>
+        <c:crossAx val="134951680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51383296"/>
+        <c:axId val="134951680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2166,16 +2227,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51381376"/>
+        <c:crossAx val="134937216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2191,7 +2254,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2404,11 +2467,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47543808"/>
-        <c:axId val="47545728"/>
+        <c:axId val="105790464"/>
+        <c:axId val="105809024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47543808"/>
+        <c:axId val="105790464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,14 +2495,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47545728"/>
+        <c:crossAx val="105809024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47545728"/>
+        <c:axId val="105809024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2528,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47543808"/>
+        <c:crossAx val="105790464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2488,7 +2551,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2522,6 +2585,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2700,11 +2764,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50878336"/>
-        <c:axId val="50888704"/>
+        <c:axId val="106237312"/>
+        <c:axId val="106243584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50878336"/>
+        <c:axId val="106237312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2725,16 +2789,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50888704"/>
+        <c:crossAx val="106243584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50888704"/>
+        <c:axId val="106243584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2756,16 +2821,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50878336"/>
+        <c:crossAx val="106237312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2781,7 +2848,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2950,12 +3017,55 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>memory map</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$87:$I$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>23160368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19281835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15828498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13340026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11223470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9553637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8334436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6749962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50918912"/>
-        <c:axId val="50920832"/>
+        <c:axId val="106298368"/>
+        <c:axId val="134419584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50918912"/>
+        <c:axId val="106298368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,14 +3089,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50920832"/>
+        <c:crossAx val="134419584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50920832"/>
+        <c:axId val="134419584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3014,7 +3124,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50918912"/>
+        <c:crossAx val="106298368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3037,7 +3147,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3207,11 +3317,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96756864"/>
-        <c:axId val="96758784"/>
+        <c:axId val="134445696"/>
+        <c:axId val="134456064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96756864"/>
+        <c:axId val="134445696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3235,14 +3345,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96758784"/>
+        <c:crossAx val="134456064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96758784"/>
+        <c:axId val="134456064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3270,7 +3380,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96756864"/>
+        <c:crossAx val="134445696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3293,7 +3403,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3327,6 +3437,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3462,11 +3573,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50942720"/>
-        <c:axId val="50944640"/>
+        <c:axId val="134502656"/>
+        <c:axId val="134525312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50942720"/>
+        <c:axId val="134502656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3487,16 +3598,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50944640"/>
+        <c:crossAx val="134525312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50944640"/>
+        <c:axId val="134525312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3520,16 +3632,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50942720"/>
+        <c:crossAx val="134502656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3545,7 +3659,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3586,6 +3700,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3764,11 +3879,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50979968"/>
-        <c:axId val="50981888"/>
+        <c:axId val="134544000"/>
+        <c:axId val="134550272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50979968"/>
+        <c:axId val="134544000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3789,16 +3904,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50981888"/>
+        <c:crossAx val="134550272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50981888"/>
+        <c:axId val="134550272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,16 +3936,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50979968"/>
+        <c:crossAx val="134544000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3845,7 +3963,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3887,6 +4005,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4065,11 +4184,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51029504"/>
-        <c:axId val="51031424"/>
+        <c:axId val="134597632"/>
+        <c:axId val="134608000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51029504"/>
+        <c:axId val="134597632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4090,16 +4209,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51031424"/>
+        <c:crossAx val="134608000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51031424"/>
+        <c:axId val="134608000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,16 +4241,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51029504"/>
+        <c:crossAx val="134597632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4146,7 +4268,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4188,6 +4310,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4366,11 +4489,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51090944"/>
-        <c:axId val="51092864"/>
+        <c:axId val="134638592"/>
+        <c:axId val="134648960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51090944"/>
+        <c:axId val="134638592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4391,16 +4514,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51092864"/>
+        <c:crossAx val="134648960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51092864"/>
+        <c:axId val="134648960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,16 +4546,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51090944"/>
+        <c:crossAx val="134638592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4447,7 +4573,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4817,16 +4943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>91050</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>11925</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>591113</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>178613</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4847,15 +4973,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>91050</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>591113</xdr:colOff>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>135750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5225,8 +5351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AN95" sqref="AN95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11791,7 +11917,47 @@
     <mergeCell ref="AE4:AM4"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:I25">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:I47">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I14">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -11810,8 +11976,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:I47">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="B7:I28 B37:I47">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -11830,48 +11996,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I14">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I28 B37:I47">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="B51:I80">
     <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:I80">
-    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -11883,6 +12009,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:I58">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:I69">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:I80">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11894,7 +12044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:I69">
+  <conditionalFormatting sqref="L7:S14">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11906,7 +12056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:I80">
+  <conditionalFormatting sqref="L18:S25">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11918,7 +12068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:S14">
+  <conditionalFormatting sqref="L29:S47">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11930,7 +12080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:S25">
+  <conditionalFormatting sqref="L51:S58">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11942,7 +12092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:S47">
+  <conditionalFormatting sqref="L62:S69">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11954,7 +12104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51:S58">
+  <conditionalFormatting sqref="L73:S80">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11966,7 +12116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L62:S69">
+  <conditionalFormatting sqref="V73:AC80">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11978,7 +12128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L73:S80">
+  <conditionalFormatting sqref="V62:AC69">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11990,7 +12140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V73:AC80">
+  <conditionalFormatting sqref="V51:AC58">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12002,7 +12152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V62:AC69">
+  <conditionalFormatting sqref="V29:AC47">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12014,7 +12164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V51:AC58">
+  <conditionalFormatting sqref="V18:AC25">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12026,7 +12176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29:AC47">
+  <conditionalFormatting sqref="V7:AC14">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12038,7 +12188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:AC25">
+  <conditionalFormatting sqref="AF7:AM14">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12050,7 +12200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7:AC14">
+  <conditionalFormatting sqref="AF18:AM25">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12062,7 +12212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF7:AM14">
+  <conditionalFormatting sqref="AF29:AM47">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12074,7 +12224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF18:AM25">
+  <conditionalFormatting sqref="AF51:AM58">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12086,7 +12236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF29:AM47">
+  <conditionalFormatting sqref="AF62:AM69">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12098,7 +12248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF51:AM58">
+  <conditionalFormatting sqref="AF73:AM80">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12110,8 +12260,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF62:AM69">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="B29:I36">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -12122,8 +12272,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF73:AM80">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="B84:I91">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -12131,30 +12281,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:I36">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84:I91">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/graphs/benchmark_locking 2x i5 M540 @ 2.53Ghz Win10 4.125Gb bandwidth.xlsx
+++ b/graphs/benchmark_locking 2x i5 M540 @ 2.53Ghz Win10 4.125Gb bandwidth.xlsx
@@ -379,11 +379,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105871616"/>
-        <c:axId val="105886464"/>
+        <c:axId val="112253568"/>
+        <c:axId val="113452160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105871616"/>
+        <c:axId val="112253568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,14 +407,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105886464"/>
+        <c:crossAx val="113452160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105886464"/>
+        <c:axId val="113452160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +440,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105871616"/>
+        <c:crossAx val="112253568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -463,7 +463,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -676,11 +676,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134691456"/>
-        <c:axId val="134701824"/>
+        <c:axId val="141402880"/>
+        <c:axId val="141404800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134691456"/>
+        <c:axId val="141402880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,14 +704,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134701824"/>
+        <c:crossAx val="141404800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134701824"/>
+        <c:axId val="141404800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -739,7 +739,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134691456"/>
+        <c:crossAx val="141402880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -762,7 +762,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -796,7 +796,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -932,11 +931,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134732032"/>
-        <c:axId val="134734208"/>
+        <c:axId val="141508992"/>
+        <c:axId val="141510912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134732032"/>
+        <c:axId val="141508992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,17 +956,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134734208"/>
+        <c:crossAx val="141510912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134734208"/>
+        <c:axId val="141510912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -991,18 +989,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134732032"/>
+        <c:crossAx val="141508992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1018,7 +1014,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1052,7 +1048,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1188,11 +1183,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134780800"/>
-        <c:axId val="134787072"/>
+        <c:axId val="141553664"/>
+        <c:axId val="141555584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134780800"/>
+        <c:axId val="141553664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,17 +1208,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134787072"/>
+        <c:crossAx val="141555584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134787072"/>
+        <c:axId val="141555584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1247,18 +1241,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134780800"/>
+        <c:crossAx val="141553664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1274,7 +1266,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1419,11 +1411,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134886144"/>
-        <c:axId val="134888064"/>
+        <c:axId val="141482624"/>
+        <c:axId val="141484800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134886144"/>
+        <c:axId val="141482624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,14 +1439,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134888064"/>
+        <c:crossAx val="141484800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134888064"/>
+        <c:axId val="141484800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1477,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134886144"/>
+        <c:crossAx val="141482624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1508,7 +1500,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1546,7 +1538,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1653,11 +1644,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134921600"/>
-        <c:axId val="134817280"/>
+        <c:axId val="141575680"/>
+        <c:axId val="141577600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134921600"/>
+        <c:axId val="141575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,17 +1669,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134817280"/>
+        <c:crossAx val="141577600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134817280"/>
+        <c:axId val="141577600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,18 +1705,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134921600"/>
+        <c:crossAx val="141575680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1742,7 +1730,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1912,11 +1900,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134839296"/>
-        <c:axId val="134845568"/>
+        <c:axId val="141620352"/>
+        <c:axId val="141622272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134839296"/>
+        <c:axId val="141620352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,14 +1928,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134845568"/>
+        <c:crossAx val="141622272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134845568"/>
+        <c:axId val="141622272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1975,7 +1963,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134839296"/>
+        <c:crossAx val="141620352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1998,7 +1986,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2032,7 +2020,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2168,11 +2155,311 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134937216"/>
-        <c:axId val="134951680"/>
+        <c:axId val="141665024"/>
+        <c:axId val="141666944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134937216"/>
+        <c:axId val="141665024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141666944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141666944"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141665024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling of four concurrent users of the lock algorithms to entities on NTFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lock files</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="101600"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>byte ranges</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="101600"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1077461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>535494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>348619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>atomic append</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="101600"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$76:$I$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>86871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>memory map</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="101600"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$87:$I$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>23160368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19281835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15828498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13340026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11223470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9553637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8334436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6749962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="141709696"/>
+        <c:axId val="141711616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="141709696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,14 +2483,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134951680"/>
+        <c:crossAx val="141711616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134951680"/>
+        <c:axId val="141711616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2231,7 +2518,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134937216"/>
+        <c:crossAx val="141709696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2247,14 +2534,318 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1600"/>
+        <a:defRPr sz="4000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling of two contended users of the lock algorithms to entities on NTFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lock files</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="101600"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>byte ranges</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="101600"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>395879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>atomic append</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="101600"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>83489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>memory map</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="101600"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$41:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7489908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6526982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5453116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4565350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3886815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3296295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2907728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2301558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="49473408"/>
+        <c:axId val="71761920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49473408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71761920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71761920"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49473408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="4000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2467,11 +3058,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105790464"/>
-        <c:axId val="105809024"/>
+        <c:axId val="113474944"/>
+        <c:axId val="113489408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105790464"/>
+        <c:axId val="113474944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,14 +3086,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105809024"/>
+        <c:crossAx val="113489408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105809024"/>
+        <c:axId val="113489408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,7 +3119,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105790464"/>
+        <c:crossAx val="113474944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2551,7 +3142,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2764,11 +3355,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="106237312"/>
-        <c:axId val="106243584"/>
+        <c:axId val="140996608"/>
+        <c:axId val="140998528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106237312"/>
+        <c:axId val="140996608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,14 +3383,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106243584"/>
+        <c:crossAx val="140998528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106243584"/>
+        <c:axId val="140998528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,7 +3416,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106237312"/>
+        <c:crossAx val="140996608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2848,7 +3439,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3061,11 +3652,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="106298368"/>
-        <c:axId val="134419584"/>
+        <c:axId val="141046144"/>
+        <c:axId val="141048064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106298368"/>
+        <c:axId val="141046144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3089,14 +3680,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134419584"/>
+        <c:crossAx val="141048064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134419584"/>
+        <c:axId val="141048064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3124,7 +3715,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106298368"/>
+        <c:crossAx val="141046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3147,7 +3738,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3317,11 +3908,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134445696"/>
-        <c:axId val="134456064"/>
+        <c:axId val="141094912"/>
+        <c:axId val="141096832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134445696"/>
+        <c:axId val="141094912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,14 +3936,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134456064"/>
+        <c:crossAx val="141096832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134456064"/>
+        <c:axId val="141096832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3380,7 +3971,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134445696"/>
+        <c:crossAx val="141094912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3403,7 +3994,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3573,11 +4164,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134502656"/>
-        <c:axId val="134525312"/>
+        <c:axId val="141118848"/>
+        <c:axId val="141145600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134502656"/>
+        <c:axId val="141118848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,14 +4192,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134525312"/>
+        <c:crossAx val="141145600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134525312"/>
+        <c:axId val="141145600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3636,7 +4227,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134502656"/>
+        <c:crossAx val="141118848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3659,7 +4250,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3879,11 +4470,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134544000"/>
-        <c:axId val="134550272"/>
+        <c:axId val="141189120"/>
+        <c:axId val="141191040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134544000"/>
+        <c:axId val="141189120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3907,14 +4498,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134550272"/>
+        <c:crossAx val="141191040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134550272"/>
+        <c:axId val="141191040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +4531,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134544000"/>
+        <c:crossAx val="141189120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3963,7 +4554,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4184,11 +4775,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134597632"/>
-        <c:axId val="134608000"/>
+        <c:axId val="141304192"/>
+        <c:axId val="141306112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134597632"/>
+        <c:axId val="141304192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4212,14 +4803,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134608000"/>
+        <c:crossAx val="141306112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134608000"/>
+        <c:axId val="141306112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,7 +4836,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134597632"/>
+        <c:crossAx val="141304192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4268,7 +4859,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4310,7 +4901,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4489,11 +5079,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134638592"/>
-        <c:axId val="134648960"/>
+        <c:axId val="141357440"/>
+        <c:axId val="141359360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134638592"/>
+        <c:axId val="141357440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4514,17 +5104,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134648960"/>
+        <c:crossAx val="141359360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134648960"/>
+        <c:axId val="141359360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,18 +5135,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134638592"/>
+        <c:crossAx val="141357440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4573,7 +5160,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5061,6 +5648,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>326230</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>241631</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>169107</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>284494</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>116719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Chart 31"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5351,8 +5998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AN95" sqref="AN95"/>
+    <sheetView tabSelected="1" topLeftCell="BM43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BM65" sqref="BM65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
